--- a/code/vocab_csv/laws-authorities.xlsx
+++ b/code/vocab_csv/laws-authorities.xlsx
@@ -8,7 +8,8 @@
     <sheet state="visible" name="legal-gb" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="legal-us" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="legal-ie" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="archive" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="legal-in" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="archive" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="529">
   <si>
     <t>Term</t>
   </si>
@@ -1138,6 +1139,27 @@
     <t>legal-ie:law-DPA,legal-eu:law-GDPR</t>
   </si>
   <si>
+    <t>law-DPDP</t>
+  </si>
+  <si>
+    <t>Digital Personal Data Protection Act 2023 (DPDP)</t>
+  </si>
+  <si>
+    <t>loc:IN</t>
+  </si>
+  <si>
+    <t>https://www.meity.gov.in/content/digital-personal-data-protection-act-2023</t>
+  </si>
+  <si>
+    <t>DPA-IN</t>
+  </si>
+  <si>
+    <t>Data Protection Board of India</t>
+  </si>
+  <si>
+    <t>legal-in:law-DPDP</t>
+  </si>
+  <si>
     <t>Label_EN</t>
   </si>
   <si>
@@ -1610,7 +1632,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1742,6 +1764,12 @@
       <color rgb="FF0000FF"/>
     </font>
     <font>
+      <u/>
+      <sz val="8.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b/>
       <sz val="10.0"/>
       <color theme="1"/>
@@ -1813,7 +1841,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1945,19 +1973,22 @@
     <xf borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -2026,6 +2057,10 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -6084,22 +6119,217 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="14"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="28" t="s">
         <v>367</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="B3" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="C3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>369</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E3" s="45" t="s">
         <v>370</v>
+      </c>
+      <c r="G3" s="22">
+        <v>45149.0</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="K3" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="43"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="10"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="14"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="K6" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" s="37"/>
+      <c r="H7" s="18"/>
+      <c r="K7" s="24"/>
+    </row>
+    <row r="8">
+      <c r="C8" s="37"/>
+      <c r="H8" s="18"/>
+      <c r="K8" s="24"/>
+    </row>
+    <row r="9">
+      <c r="C9" s="37"/>
+      <c r="H9" s="18"/>
+      <c r="K9" s="24"/>
+    </row>
+    <row r="10">
+      <c r="C10" s="37"/>
+      <c r="H10" s="18"/>
+      <c r="K10" s="24"/>
+    </row>
+    <row r="11">
+      <c r="H11" s="18"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A6:X10">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$J6="accepted"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:X10">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$J6="proposed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:X10">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$J6="changed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:X5 A11:X143">
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>$J2="accepted"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:X5 A11:X143">
+    <cfRule type="expression" dxfId="1" priority="5">
+      <formula>$J2="proposed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:X5 A11:X143">
+    <cfRule type="expression" dxfId="2" priority="6">
+      <formula>$J2="changed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="E3"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="20.75"/>
+    <col customWidth="1" min="2" max="2" width="41.63"/>
+    <col customWidth="1" min="6" max="6" width="25.13"/>
+    <col customWidth="1" min="7" max="7" width="57.63"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="28.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>375</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>376</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>377</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>8</v>
@@ -6119,7 +6349,7 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -6134,7 +6364,7 @@
     </row>
     <row r="3">
       <c r="A3" s="28" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>111</v>
@@ -6180,7 +6410,7 @@
     </row>
     <row r="4">
       <c r="A4" s="28" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>116</v>
@@ -6224,7 +6454,7 @@
     </row>
     <row r="5">
       <c r="A5" s="30" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>120</v>
@@ -6268,7 +6498,7 @@
     </row>
     <row r="6">
       <c r="A6" s="30" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>124</v>
@@ -6312,7 +6542,7 @@
     </row>
     <row r="7">
       <c r="A7" s="30" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>128</v>
@@ -6356,7 +6586,7 @@
     </row>
     <row r="8">
       <c r="A8" s="30" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>132</v>
@@ -6400,7 +6630,7 @@
     </row>
     <row r="9">
       <c r="A9" s="30" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>136</v>
@@ -6444,7 +6674,7 @@
     </row>
     <row r="10">
       <c r="A10" s="30" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>140</v>
@@ -6488,7 +6718,7 @@
     </row>
     <row r="11">
       <c r="A11" s="30" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>144</v>
@@ -6532,7 +6762,7 @@
     </row>
     <row r="12">
       <c r="A12" s="30" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>148</v>
@@ -6576,7 +6806,7 @@
     </row>
     <row r="13">
       <c r="A13" s="30" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>152</v>
@@ -6620,7 +6850,7 @@
     </row>
     <row r="14">
       <c r="A14" s="30" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>156</v>
@@ -6664,7 +6894,7 @@
     </row>
     <row r="15">
       <c r="A15" s="30" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>160</v>
@@ -6708,7 +6938,7 @@
     </row>
     <row r="16">
       <c r="A16" s="30" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>164</v>
@@ -6752,7 +6982,7 @@
     </row>
     <row r="17">
       <c r="A17" s="30" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>168</v>
@@ -6796,7 +7026,7 @@
     </row>
     <row r="18">
       <c r="A18" s="30" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>172</v>
@@ -6840,7 +7070,7 @@
     </row>
     <row r="19">
       <c r="A19" s="30" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>176</v>
@@ -6897,7 +7127,7 @@
     </row>
     <row r="21">
       <c r="A21" s="9" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="13"/>
@@ -6956,7 +7186,7 @@
     </row>
     <row r="23">
       <c r="A23" s="21" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="13"/>
@@ -6973,7 +7203,7 @@
     </row>
     <row r="24">
       <c r="A24" s="15" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="B24" s="15"/>
       <c r="D24" s="18"/>
@@ -6988,7 +7218,7 @@
     </row>
     <row r="25">
       <c r="A25" s="15" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="B25" s="15"/>
       <c r="D25" s="18"/>
@@ -7003,7 +7233,7 @@
     </row>
     <row r="26">
       <c r="A26" s="15" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="B26" s="15"/>
       <c r="D26" s="18"/>
@@ -7018,7 +7248,7 @@
     </row>
     <row r="27">
       <c r="A27" s="15" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="B27" s="15"/>
       <c r="D27" s="18"/>
@@ -7044,7 +7274,7 @@
     </row>
     <row r="29">
       <c r="A29" s="8" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="B29" s="15"/>
       <c r="D29" s="18"/>
@@ -7057,7 +7287,7 @@
     </row>
     <row r="30">
       <c r="A30" s="15" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>299</v>
@@ -7078,7 +7308,7 @@
         <v>44848.0</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="K30" s="15" t="s">
         <v>19</v>
@@ -7089,7 +7319,7 @@
     </row>
     <row r="31">
       <c r="A31" s="15" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>14</v>
@@ -7110,7 +7340,7 @@
         <v>44848.0</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="K31" s="15" t="s">
         <v>19</v>
@@ -7121,7 +7351,7 @@
     </row>
     <row r="33">
       <c r="A33" s="9" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="13"/>
@@ -7136,7 +7366,7 @@
     </row>
     <row r="34">
       <c r="A34" s="28" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>309</v>
@@ -7180,7 +7410,7 @@
     </row>
     <row r="35">
       <c r="A35" s="30" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>313</v>
@@ -7224,7 +7454,7 @@
     </row>
     <row r="36">
       <c r="A36" s="15" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>315</v>
@@ -7266,7 +7496,7 @@
     </row>
     <row r="37">
       <c r="A37" s="15" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>321</v>
@@ -7308,7 +7538,7 @@
     </row>
     <row r="38">
       <c r="A38" s="15" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>325</v>
@@ -7350,7 +7580,7 @@
     </row>
     <row r="39">
       <c r="A39" s="15" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>329</v>
@@ -7392,7 +7622,7 @@
     </row>
     <row r="40">
       <c r="A40" s="15" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>333</v>
@@ -7434,7 +7664,7 @@
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="B43" s="32"/>
       <c r="C43" s="41"/>
@@ -7463,23 +7693,23 @@
     </row>
     <row r="44">
       <c r="A44" s="32" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="C44" s="41"/>
       <c r="D44" s="33" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="E44" s="32" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="F44" s="33" t="s">
         <v>42</v>
       </c>
       <c r="G44" s="34" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="H44" s="35">
         <v>44650.0</v>
@@ -7510,23 +7740,23 @@
     </row>
     <row r="45">
       <c r="A45" s="32" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="C45" s="41"/>
       <c r="D45" s="33" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="F45" s="33" t="s">
         <v>42</v>
       </c>
       <c r="G45" s="34" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="H45" s="35">
         <v>44650.0</v>
@@ -7557,23 +7787,23 @@
     </row>
     <row r="46">
       <c r="A46" s="32" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="B46" s="32" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="C46" s="41"/>
       <c r="D46" s="33" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="E46" s="32" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="F46" s="32" t="s">
         <v>42</v>
       </c>
       <c r="G46" s="34" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="H46" s="35">
         <v>44650.0</v>
@@ -7604,23 +7834,23 @@
     </row>
     <row r="47">
       <c r="A47" s="32" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="C47" s="41"/>
       <c r="D47" s="33" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="E47" s="32" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="F47" s="32" t="s">
         <v>42</v>
       </c>
       <c r="G47" s="34" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="H47" s="35">
         <v>44650.0</v>
@@ -7651,23 +7881,23 @@
     </row>
     <row r="48">
       <c r="A48" s="33" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="C48" s="41"/>
       <c r="D48" s="33" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="F48" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G48" s="47" t="s">
-        <v>428</v>
+      <c r="G48" s="48" t="s">
+        <v>435</v>
       </c>
       <c r="H48" s="35">
         <v>45093.0</v>
@@ -7696,23 +7926,23 @@
     </row>
     <row r="49">
       <c r="A49" s="32" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="B49" s="32" t="s">
-        <v>430</v>
-      </c>
-      <c r="C49" s="48"/>
+        <v>437</v>
+      </c>
+      <c r="C49" s="49"/>
       <c r="D49" s="33" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="F49" s="32" t="s">
         <v>42</v>
       </c>
       <c r="G49" s="34" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="H49" s="35">
         <v>44650.0</v>
@@ -7743,23 +7973,23 @@
     </row>
     <row r="50">
       <c r="A50" s="32" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="B50" s="32" t="s">
-        <v>434</v>
-      </c>
-      <c r="C50" s="48"/>
+        <v>441</v>
+      </c>
+      <c r="C50" s="49"/>
       <c r="D50" s="33" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="E50" s="32" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="F50" s="32" t="s">
         <v>42</v>
       </c>
       <c r="G50" s="34" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="H50" s="35">
         <v>44650.0</v>
@@ -7790,23 +8020,23 @@
     </row>
     <row r="51">
       <c r="A51" s="32" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="B51" s="32" t="s">
-        <v>438</v>
-      </c>
-      <c r="C51" s="48"/>
+        <v>445</v>
+      </c>
+      <c r="C51" s="49"/>
       <c r="D51" s="33" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="E51" s="32" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="F51" s="32" t="s">
         <v>42</v>
       </c>
       <c r="G51" s="34" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="H51" s="35">
         <v>44650.0</v>
@@ -7837,23 +8067,23 @@
     </row>
     <row r="52">
       <c r="A52" s="32" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="B52" s="32" t="s">
-        <v>442</v>
-      </c>
-      <c r="C52" s="48"/>
+        <v>449</v>
+      </c>
+      <c r="C52" s="49"/>
       <c r="D52" s="33" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="E52" s="32" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="F52" s="32" t="s">
         <v>42</v>
       </c>
       <c r="G52" s="34" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="H52" s="35">
         <v>44650.0</v>
@@ -7884,23 +8114,23 @@
     </row>
     <row r="53">
       <c r="A53" s="32" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="B53" s="32" t="s">
-        <v>446</v>
-      </c>
-      <c r="C53" s="48"/>
+        <v>453</v>
+      </c>
+      <c r="C53" s="49"/>
       <c r="D53" s="33" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="E53" s="32" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="F53" s="32" t="s">
         <v>42</v>
       </c>
       <c r="G53" s="34" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="H53" s="35">
         <v>44650.0</v>
@@ -7931,23 +8161,23 @@
     </row>
     <row r="54">
       <c r="A54" s="32" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>450</v>
-      </c>
-      <c r="C54" s="48"/>
+        <v>457</v>
+      </c>
+      <c r="C54" s="49"/>
       <c r="D54" s="33" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="E54" s="32" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="F54" s="32" t="s">
         <v>42</v>
       </c>
       <c r="G54" s="34" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="H54" s="35">
         <v>44650.0</v>
@@ -7978,23 +8208,23 @@
     </row>
     <row r="55">
       <c r="A55" s="32" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="B55" s="32" t="s">
-        <v>454</v>
-      </c>
-      <c r="C55" s="48"/>
+        <v>461</v>
+      </c>
+      <c r="C55" s="49"/>
       <c r="D55" s="33" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="E55" s="32" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="F55" s="32" t="s">
         <v>42</v>
       </c>
       <c r="G55" s="34" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="H55" s="35">
         <v>44650.0</v>
@@ -8025,23 +8255,23 @@
     </row>
     <row r="56">
       <c r="A56" s="32" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>458</v>
-      </c>
-      <c r="C56" s="48"/>
+        <v>465</v>
+      </c>
+      <c r="C56" s="49"/>
       <c r="D56" s="33" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="E56" s="32" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="F56" s="32" t="s">
         <v>42</v>
       </c>
       <c r="G56" s="34" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="H56" s="35">
         <v>44650.0</v>
@@ -8077,9 +8307,9 @@
       <c r="B57" s="32" t="s">
         <v>364</v>
       </c>
-      <c r="C57" s="48"/>
+      <c r="C57" s="49"/>
       <c r="D57" s="33" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="E57" s="32" t="s">
         <v>361</v>
@@ -8088,7 +8318,7 @@
         <v>42</v>
       </c>
       <c r="G57" s="34" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="H57" s="35">
         <v>44650.0</v>
@@ -8119,23 +8349,23 @@
     </row>
     <row r="58">
       <c r="A58" s="33" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="B58" s="33" t="s">
-        <v>463</v>
-      </c>
-      <c r="C58" s="48"/>
+        <v>470</v>
+      </c>
+      <c r="C58" s="49"/>
       <c r="D58" s="33" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="E58" s="33" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="F58" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G58" s="49" t="s">
-        <v>465</v>
+      <c r="G58" s="50" t="s">
+        <v>472</v>
       </c>
       <c r="H58" s="35">
         <v>45093.0</v>
@@ -8162,23 +8392,23 @@
     </row>
     <row r="59">
       <c r="A59" s="32" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="B59" s="32" t="s">
-        <v>467</v>
-      </c>
-      <c r="C59" s="48"/>
+        <v>474</v>
+      </c>
+      <c r="C59" s="49"/>
       <c r="D59" s="33" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="E59" s="32" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="F59" s="32" t="s">
         <v>42</v>
       </c>
       <c r="G59" s="34" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="H59" s="35">
         <v>44650.0</v>
@@ -8209,23 +8439,23 @@
     </row>
     <row r="60">
       <c r="A60" s="33" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="B60" s="33" t="s">
-        <v>471</v>
-      </c>
-      <c r="C60" s="48"/>
+        <v>478</v>
+      </c>
+      <c r="C60" s="49"/>
       <c r="D60" s="33" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="E60" s="33" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="F60" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G60" s="47" t="s">
-        <v>473</v>
+      <c r="G60" s="48" t="s">
+        <v>480</v>
       </c>
       <c r="H60" s="35">
         <v>45093.0</v>
@@ -8252,23 +8482,23 @@
     </row>
     <row r="61">
       <c r="A61" s="32" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="B61" s="32" t="s">
-        <v>475</v>
-      </c>
-      <c r="C61" s="48"/>
+        <v>482</v>
+      </c>
+      <c r="C61" s="49"/>
       <c r="D61" s="33" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="E61" s="32" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="F61" s="32" t="s">
         <v>42</v>
       </c>
       <c r="G61" s="34" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="H61" s="35">
         <v>44650.0</v>
@@ -8299,23 +8529,23 @@
     </row>
     <row r="62">
       <c r="A62" s="32" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>479</v>
-      </c>
-      <c r="C62" s="48"/>
+        <v>486</v>
+      </c>
+      <c r="C62" s="49"/>
       <c r="D62" s="33" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="E62" s="32" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="F62" s="32" t="s">
         <v>42</v>
       </c>
       <c r="G62" s="34" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="H62" s="35">
         <v>44650.0</v>
@@ -8346,23 +8576,23 @@
     </row>
     <row r="63">
       <c r="A63" s="32" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="B63" s="32" t="s">
-        <v>483</v>
-      </c>
-      <c r="C63" s="48"/>
+        <v>490</v>
+      </c>
+      <c r="C63" s="49"/>
       <c r="D63" s="33" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="E63" s="32" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="F63" s="32" t="s">
         <v>42</v>
       </c>
       <c r="G63" s="34" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="H63" s="35">
         <v>44650.0</v>
@@ -8393,23 +8623,23 @@
     </row>
     <row r="64">
       <c r="A64" s="32" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="B64" s="32" t="s">
-        <v>487</v>
-      </c>
-      <c r="C64" s="48"/>
+        <v>494</v>
+      </c>
+      <c r="C64" s="49"/>
       <c r="D64" s="33" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="E64" s="32" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="F64" s="32" t="s">
         <v>42</v>
       </c>
       <c r="G64" s="34" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="H64" s="35">
         <v>44650.0</v>
@@ -8440,23 +8670,23 @@
     </row>
     <row r="65">
       <c r="A65" s="32" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="B65" s="33" t="s">
-        <v>491</v>
-      </c>
-      <c r="C65" s="48"/>
+        <v>498</v>
+      </c>
+      <c r="C65" s="49"/>
       <c r="D65" s="33" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="E65" s="32" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="F65" s="32" t="s">
         <v>42</v>
       </c>
       <c r="G65" s="34" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="H65" s="35">
         <v>44650.0</v>
@@ -8487,23 +8717,23 @@
     </row>
     <row r="66">
       <c r="A66" s="33" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="B66" s="33" t="s">
-        <v>495</v>
-      </c>
-      <c r="C66" s="48"/>
+        <v>502</v>
+      </c>
+      <c r="C66" s="49"/>
       <c r="D66" s="33" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="E66" s="33" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="F66" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G66" s="47" t="s">
-        <v>497</v>
+      <c r="G66" s="48" t="s">
+        <v>504</v>
       </c>
       <c r="H66" s="35">
         <v>45093.0</v>
@@ -8530,23 +8760,23 @@
     </row>
     <row r="67">
       <c r="A67" s="32" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="B67" s="32" t="s">
-        <v>499</v>
-      </c>
-      <c r="C67" s="48"/>
+        <v>506</v>
+      </c>
+      <c r="C67" s="49"/>
       <c r="D67" s="33" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="E67" s="32" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="F67" s="32" t="s">
         <v>42</v>
       </c>
       <c r="G67" s="34" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="H67" s="35">
         <v>44650.0</v>
@@ -8577,23 +8807,23 @@
     </row>
     <row r="68">
       <c r="A68" s="32" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="B68" s="32" t="s">
-        <v>503</v>
-      </c>
-      <c r="C68" s="48"/>
+        <v>510</v>
+      </c>
+      <c r="C68" s="49"/>
       <c r="D68" s="33" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="E68" s="32" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="F68" s="32" t="s">
         <v>42</v>
       </c>
       <c r="G68" s="34" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="H68" s="35">
         <v>44650.0</v>
@@ -8624,23 +8854,23 @@
     </row>
     <row r="69">
       <c r="A69" s="32" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="B69" s="32" t="s">
-        <v>507</v>
-      </c>
-      <c r="C69" s="48"/>
+        <v>514</v>
+      </c>
+      <c r="C69" s="49"/>
       <c r="D69" s="33" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="E69" s="32" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="F69" s="32" t="s">
         <v>42</v>
       </c>
       <c r="G69" s="34" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="H69" s="35">
         <v>44650.0</v>
@@ -8671,23 +8901,23 @@
     </row>
     <row r="70">
       <c r="A70" s="32" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>511</v>
-      </c>
-      <c r="C70" s="48"/>
+        <v>518</v>
+      </c>
+      <c r="C70" s="49"/>
       <c r="D70" s="33" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="E70" s="32" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="F70" s="32" t="s">
         <v>42</v>
       </c>
       <c r="G70" s="34" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="H70" s="35">
         <v>44650.0</v>
@@ -8718,23 +8948,23 @@
     </row>
     <row r="71">
       <c r="A71" s="32" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="B71" s="32" t="s">
-        <v>515</v>
-      </c>
-      <c r="C71" s="48"/>
+        <v>522</v>
+      </c>
+      <c r="C71" s="49"/>
       <c r="D71" s="33" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="E71" s="32" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="F71" s="32" t="s">
         <v>42</v>
       </c>
       <c r="G71" s="34" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="H71" s="35">
         <v>44650.0</v>
@@ -8765,23 +8995,23 @@
     </row>
     <row r="72">
       <c r="A72" s="32" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="B72" s="32" t="s">
-        <v>519</v>
-      </c>
-      <c r="C72" s="48"/>
+        <v>526</v>
+      </c>
+      <c r="C72" s="49"/>
       <c r="D72" s="33" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="E72" s="32" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="F72" s="32" t="s">
         <v>42</v>
       </c>
       <c r="G72" s="34" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="H72" s="35">
         <v>44650.0</v>

--- a/code/vocab_csv/laws-authorities.xlsx
+++ b/code/vocab_csv/laws-authorities.xlsx
@@ -1632,7 +1632,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1764,6 +1764,10 @@
       <color rgb="FF0000FF"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <u/>
       <sz val="8.0"/>
       <color rgb="FF0000FF"/>
@@ -1788,7 +1792,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1799,6 +1803,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFEFEFEF"/>
         <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
   </fills>
@@ -1841,7 +1851,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1973,22 +1983,25 @@
     <xf borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="24" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -5474,7 +5487,7 @@
       <c r="G3" s="12">
         <v>43831.0</v>
       </c>
-      <c r="H3" s="14">
+      <c r="I3" s="14">
         <v>44650.0</v>
       </c>
       <c r="K3" s="15" t="s">
@@ -5506,7 +5519,7 @@
       <c r="G4" s="12">
         <v>44927.0</v>
       </c>
-      <c r="H4" s="14">
+      <c r="I4" s="14">
         <v>44650.0</v>
       </c>
       <c r="K4" s="15" t="s">
@@ -5538,7 +5551,7 @@
       <c r="G5" s="44" t="s">
         <v>318</v>
       </c>
-      <c r="H5" s="18">
+      <c r="I5" s="18">
         <v>44887.0</v>
       </c>
       <c r="K5" s="15" t="s">
@@ -5567,7 +5580,7 @@
       <c r="G6" s="18">
         <v>44927.0</v>
       </c>
-      <c r="H6" s="18">
+      <c r="I6" s="18">
         <v>44888.0</v>
       </c>
       <c r="K6" s="15" t="s">
@@ -5596,7 +5609,7 @@
       <c r="G7" s="18">
         <v>45298.0</v>
       </c>
-      <c r="H7" s="14">
+      <c r="I7" s="14">
         <v>44888.0</v>
       </c>
       <c r="K7" s="15" t="s">
@@ -5625,7 +5638,7 @@
       <c r="G8" s="18">
         <v>44933.0</v>
       </c>
-      <c r="H8" s="14">
+      <c r="I8" s="14">
         <v>44888.0</v>
       </c>
       <c r="K8" s="15" t="s">
@@ -5654,7 +5667,7 @@
       <c r="G9" s="18">
         <v>44206.0</v>
       </c>
-      <c r="H9" s="14">
+      <c r="I9" s="14">
         <v>44888.0</v>
       </c>
       <c r="K9" s="15" t="s">
@@ -5688,7 +5701,7 @@
       <c r="F12" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="H12" s="18">
+      <c r="I12" s="18">
         <v>44887.0</v>
       </c>
       <c r="K12" s="15" t="s">
@@ -5717,7 +5730,7 @@
       <c r="F13" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="H13" s="18">
+      <c r="I13" s="18">
         <v>44888.0</v>
       </c>
       <c r="K13" s="15" t="s">
@@ -5746,7 +5759,7 @@
       <c r="F14" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="H14" s="18">
+      <c r="I14" s="18">
         <v>44888.0</v>
       </c>
       <c r="K14" s="15" t="s">
@@ -5775,7 +5788,7 @@
       <c r="F15" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="H15" s="18">
+      <c r="I15" s="18">
         <v>44888.0</v>
       </c>
       <c r="K15" s="15" t="s">
@@ -5804,7 +5817,7 @@
       <c r="F16" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="H16" s="18">
+      <c r="I16" s="18">
         <v>44888.0</v>
       </c>
       <c r="K16" s="15" t="s">
@@ -5833,7 +5846,7 @@
       <c r="F17" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="H17" s="18">
+      <c r="I17" s="18">
         <v>45273.0</v>
       </c>
       <c r="K17" s="15" t="s">
@@ -5991,6 +6004,9 @@
         <v>43244.0</v>
       </c>
       <c r="H3" s="14"/>
+      <c r="I3" s="45">
+        <v>45336.0</v>
+      </c>
       <c r="K3" s="15" t="s">
         <v>18</v>
       </c>
@@ -6029,6 +6045,9 @@
         <v>366</v>
       </c>
       <c r="H6" s="18"/>
+      <c r="I6" s="45">
+        <v>45336.0</v>
+      </c>
       <c r="K6" s="15" t="s">
         <v>18</v>
       </c>
@@ -6183,13 +6202,16 @@
       <c r="D3" s="21" t="s">
         <v>369</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="46" t="s">
         <v>370</v>
       </c>
       <c r="G3" s="22">
         <v>45149.0</v>
       </c>
       <c r="H3" s="14"/>
+      <c r="I3" s="45">
+        <v>45336.0</v>
+      </c>
       <c r="K3" s="15" t="s">
         <v>18</v>
       </c>
@@ -6225,6 +6247,9 @@
         <v>373</v>
       </c>
       <c r="H6" s="18"/>
+      <c r="I6" s="45">
+        <v>45336.0</v>
+      </c>
       <c r="K6" s="15" t="s">
         <v>18</v>
       </c>
@@ -6316,13 +6341,13 @@
       <c r="B1" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="47" t="s">
         <v>375</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="48" t="s">
         <v>376</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="48" t="s">
         <v>377</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -7896,7 +7921,7 @@
       <c r="F48" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G48" s="48" t="s">
+      <c r="G48" s="49" t="s">
         <v>435</v>
       </c>
       <c r="H48" s="35">
@@ -7931,7 +7956,7 @@
       <c r="B49" s="32" t="s">
         <v>437</v>
       </c>
-      <c r="C49" s="49"/>
+      <c r="C49" s="50"/>
       <c r="D49" s="33" t="s">
         <v>417</v>
       </c>
@@ -7978,7 +8003,7 @@
       <c r="B50" s="32" t="s">
         <v>441</v>
       </c>
-      <c r="C50" s="49"/>
+      <c r="C50" s="50"/>
       <c r="D50" s="33" t="s">
         <v>417</v>
       </c>
@@ -8025,7 +8050,7 @@
       <c r="B51" s="32" t="s">
         <v>445</v>
       </c>
-      <c r="C51" s="49"/>
+      <c r="C51" s="50"/>
       <c r="D51" s="33" t="s">
         <v>417</v>
       </c>
@@ -8072,7 +8097,7 @@
       <c r="B52" s="32" t="s">
         <v>449</v>
       </c>
-      <c r="C52" s="49"/>
+      <c r="C52" s="50"/>
       <c r="D52" s="33" t="s">
         <v>417</v>
       </c>
@@ -8119,7 +8144,7 @@
       <c r="B53" s="32" t="s">
         <v>453</v>
       </c>
-      <c r="C53" s="49"/>
+      <c r="C53" s="50"/>
       <c r="D53" s="33" t="s">
         <v>417</v>
       </c>
@@ -8166,7 +8191,7 @@
       <c r="B54" s="32" t="s">
         <v>457</v>
       </c>
-      <c r="C54" s="49"/>
+      <c r="C54" s="50"/>
       <c r="D54" s="33" t="s">
         <v>417</v>
       </c>
@@ -8213,7 +8238,7 @@
       <c r="B55" s="32" t="s">
         <v>461</v>
       </c>
-      <c r="C55" s="49"/>
+      <c r="C55" s="50"/>
       <c r="D55" s="33" t="s">
         <v>417</v>
       </c>
@@ -8260,7 +8285,7 @@
       <c r="B56" s="32" t="s">
         <v>465</v>
       </c>
-      <c r="C56" s="49"/>
+      <c r="C56" s="50"/>
       <c r="D56" s="33" t="s">
         <v>417</v>
       </c>
@@ -8307,7 +8332,7 @@
       <c r="B57" s="32" t="s">
         <v>364</v>
       </c>
-      <c r="C57" s="49"/>
+      <c r="C57" s="50"/>
       <c r="D57" s="33" t="s">
         <v>417</v>
       </c>
@@ -8354,7 +8379,7 @@
       <c r="B58" s="33" t="s">
         <v>470</v>
       </c>
-      <c r="C58" s="49"/>
+      <c r="C58" s="50"/>
       <c r="D58" s="33" t="s">
         <v>417</v>
       </c>
@@ -8364,7 +8389,7 @@
       <c r="F58" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G58" s="50" t="s">
+      <c r="G58" s="51" t="s">
         <v>472</v>
       </c>
       <c r="H58" s="35">
@@ -8397,7 +8422,7 @@
       <c r="B59" s="32" t="s">
         <v>474</v>
       </c>
-      <c r="C59" s="49"/>
+      <c r="C59" s="50"/>
       <c r="D59" s="33" t="s">
         <v>417</v>
       </c>
@@ -8444,7 +8469,7 @@
       <c r="B60" s="33" t="s">
         <v>478</v>
       </c>
-      <c r="C60" s="49"/>
+      <c r="C60" s="50"/>
       <c r="D60" s="33" t="s">
         <v>417</v>
       </c>
@@ -8454,7 +8479,7 @@
       <c r="F60" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G60" s="48" t="s">
+      <c r="G60" s="49" t="s">
         <v>480</v>
       </c>
       <c r="H60" s="35">
@@ -8487,7 +8512,7 @@
       <c r="B61" s="32" t="s">
         <v>482</v>
       </c>
-      <c r="C61" s="49"/>
+      <c r="C61" s="50"/>
       <c r="D61" s="33" t="s">
         <v>417</v>
       </c>
@@ -8534,7 +8559,7 @@
       <c r="B62" s="32" t="s">
         <v>486</v>
       </c>
-      <c r="C62" s="49"/>
+      <c r="C62" s="50"/>
       <c r="D62" s="33" t="s">
         <v>417</v>
       </c>
@@ -8581,7 +8606,7 @@
       <c r="B63" s="32" t="s">
         <v>490</v>
       </c>
-      <c r="C63" s="49"/>
+      <c r="C63" s="50"/>
       <c r="D63" s="33" t="s">
         <v>417</v>
       </c>
@@ -8628,7 +8653,7 @@
       <c r="B64" s="32" t="s">
         <v>494</v>
       </c>
-      <c r="C64" s="49"/>
+      <c r="C64" s="50"/>
       <c r="D64" s="33" t="s">
         <v>417</v>
       </c>
@@ -8675,7 +8700,7 @@
       <c r="B65" s="33" t="s">
         <v>498</v>
       </c>
-      <c r="C65" s="49"/>
+      <c r="C65" s="50"/>
       <c r="D65" s="33" t="s">
         <v>417</v>
       </c>
@@ -8722,7 +8747,7 @@
       <c r="B66" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="C66" s="49"/>
+      <c r="C66" s="50"/>
       <c r="D66" s="33" t="s">
         <v>417</v>
       </c>
@@ -8732,7 +8757,7 @@
       <c r="F66" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G66" s="48" t="s">
+      <c r="G66" s="49" t="s">
         <v>504</v>
       </c>
       <c r="H66" s="35">
@@ -8765,7 +8790,7 @@
       <c r="B67" s="32" t="s">
         <v>506</v>
       </c>
-      <c r="C67" s="49"/>
+      <c r="C67" s="50"/>
       <c r="D67" s="33" t="s">
         <v>417</v>
       </c>
@@ -8812,7 +8837,7 @@
       <c r="B68" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="C68" s="49"/>
+      <c r="C68" s="50"/>
       <c r="D68" s="33" t="s">
         <v>417</v>
       </c>
@@ -8859,7 +8884,7 @@
       <c r="B69" s="32" t="s">
         <v>514</v>
       </c>
-      <c r="C69" s="49"/>
+      <c r="C69" s="50"/>
       <c r="D69" s="33" t="s">
         <v>417</v>
       </c>
@@ -8906,7 +8931,7 @@
       <c r="B70" s="32" t="s">
         <v>518</v>
       </c>
-      <c r="C70" s="49"/>
+      <c r="C70" s="50"/>
       <c r="D70" s="33" t="s">
         <v>417</v>
       </c>
@@ -8953,7 +8978,7 @@
       <c r="B71" s="32" t="s">
         <v>522</v>
       </c>
-      <c r="C71" s="49"/>
+      <c r="C71" s="50"/>
       <c r="D71" s="33" t="s">
         <v>417</v>
       </c>
@@ -9000,7 +9025,7 @@
       <c r="B72" s="32" t="s">
         <v>526</v>
       </c>
-      <c r="C72" s="49"/>
+      <c r="C72" s="50"/>
       <c r="D72" s="33" t="s">
         <v>417</v>
       </c>

--- a/code/vocab_csv/laws-authorities.xlsx
+++ b/code/vocab_csv/laws-authorities.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1897" uniqueCount="583">
   <si>
     <t>Term</t>
   </si>
@@ -95,7 +95,7 @@
     <t>Data Protection Authority (DSB)</t>
   </si>
   <si>
-    <t>dpv:DataProtectionAuthority</t>
+    <t>eu-gdpr:DataProtectionAuthority</t>
   </si>
   <si>
     <t>loc:AT</t>
@@ -375,9 +375,6 @@
   </si>
   <si>
     <t>The Federal Commissioner for Data Protection and Freedom of Information</t>
-  </si>
-  <si>
-    <t>eu-gdpr:DataProtectionAuthority</t>
   </si>
   <si>
     <t>http://www.bfdi.bund.de/</t>
@@ -1495,6 +1492,9 @@
   </si>
   <si>
     <t>Utah Attorney General</t>
+  </si>
+  <si>
+    <t>dpv:DataProtectionAuthority</t>
   </si>
   <si>
     <t>https://attorneygeneral.utah.gov/</t>
@@ -1885,11 +1885,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <u/>
       <color rgb="FF0000FF"/>
     </font>
@@ -1902,6 +1897,11 @@
     <font>
       <u/>
       <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="8.0"/>
@@ -2106,22 +2106,22 @@
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
@@ -2144,7 +2144,7 @@
     <xf borderId="0" fillId="0" fontId="20" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -2679,19 +2679,19 @@
       <c r="B6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="23"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="20">
         <v>45506.0</v>
       </c>
@@ -2700,27 +2700,27 @@
       </c>
     </row>
     <row r="7">
-      <c r="C7" s="24"/>
-      <c r="H7" s="23"/>
-      <c r="K7" s="25"/>
+      <c r="C7" s="23"/>
+      <c r="H7" s="22"/>
+      <c r="K7" s="24"/>
     </row>
     <row r="8">
-      <c r="C8" s="24"/>
-      <c r="H8" s="23"/>
-      <c r="K8" s="25"/>
+      <c r="C8" s="23"/>
+      <c r="H8" s="22"/>
+      <c r="K8" s="24"/>
     </row>
     <row r="9">
-      <c r="C9" s="24"/>
-      <c r="H9" s="23"/>
-      <c r="K9" s="25"/>
+      <c r="C9" s="23"/>
+      <c r="H9" s="22"/>
+      <c r="K9" s="24"/>
     </row>
     <row r="10">
-      <c r="C10" s="24"/>
-      <c r="H10" s="23"/>
-      <c r="K10" s="25"/>
+      <c r="C10" s="23"/>
+      <c r="H10" s="22"/>
+      <c r="K10" s="24"/>
     </row>
     <row r="11">
-      <c r="H11" s="23"/>
+      <c r="H11" s="22"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C6">
@@ -2853,26 +2853,26 @@
     </row>
     <row r="3">
       <c r="A3" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>252</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>253</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="E3" s="28" t="s">
         <v>254</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>255</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="12">
         <v>43245.0</v>
       </c>
       <c r="H3" s="11"/>
-      <c r="I3" s="23">
+      <c r="I3" s="22">
         <v>45264.0</v>
       </c>
       <c r="J3" s="41"/>
@@ -2880,9 +2880,9 @@
         <v>20</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="M3" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="M3" s="25" t="s">
         <v>43</v>
       </c>
       <c r="N3" s="41"/>
@@ -2900,26 +2900,26 @@
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>256</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>257</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="E4" s="28" t="s">
         <v>258</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>259</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="19">
         <v>45193.0</v>
       </c>
       <c r="H4" s="11"/>
-      <c r="I4" s="23">
+      <c r="I4" s="22">
         <v>45265.0</v>
       </c>
       <c r="J4" s="41"/>
@@ -2943,26 +2943,26 @@
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>260</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>261</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>262</v>
-      </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23">
+        <v>257</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22">
         <v>44881.0</v>
       </c>
       <c r="H5" s="41"/>
-      <c r="I5" s="23">
+      <c r="I5" s="22">
         <v>45266.0</v>
       </c>
       <c r="J5" s="41"/>
@@ -2986,26 +2986,26 @@
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>263</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>264</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23">
+        <v>257</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22">
         <v>44866.0</v>
       </c>
       <c r="H6" s="41"/>
-      <c r="I6" s="23">
+      <c r="I6" s="22">
         <v>45267.0</v>
       </c>
       <c r="J6" s="41"/>
@@ -3029,24 +3029,24 @@
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>266</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>267</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
+        <v>257</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
       <c r="H7" s="41"/>
-      <c r="I7" s="23">
+      <c r="I7" s="22">
         <v>45268.0</v>
       </c>
       <c r="J7" s="41"/>
@@ -3070,24 +3070,24 @@
     </row>
     <row r="8">
       <c r="A8" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>269</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>270</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>271</v>
-      </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
+        <v>257</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
       <c r="H8" s="41"/>
-      <c r="I8" s="23">
+      <c r="I8" s="22">
         <v>45269.0</v>
       </c>
       <c r="J8" s="41"/>
@@ -3115,9 +3115,9 @@
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" s="15"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="I9" s="23"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="I9" s="22"/>
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
     </row>
@@ -3125,57 +3125,57 @@
       <c r="A10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="23"/>
+      <c r="I10" s="22"/>
     </row>
     <row r="11">
       <c r="A11" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="C11" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="E11" s="42" t="s">
         <v>273</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>274</v>
-      </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="22">
         <v>45272.0</v>
       </c>
-      <c r="J11" s="23"/>
+      <c r="J11" s="22"/>
       <c r="K11" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="C12" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D12" s="43" t="s">
-        <v>254</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>277</v>
-      </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="24" t="s">
         <v>19</v>
       </c>
       <c r="G12" s="41"/>
       <c r="H12" s="41"/>
-      <c r="I12" s="23">
+      <c r="I12" s="22">
         <v>45273.0</v>
       </c>
       <c r="J12" s="41"/>
@@ -3199,42 +3199,42 @@
     </row>
     <row r="13">
       <c r="A13" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="C13" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="D13" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="E13" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="E13" s="26" t="s">
+      <c r="F13" s="15" t="s">
         <v>281</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="C14" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="D14" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="E14" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="E14" s="22" t="s">
+      <c r="F14" s="15" t="s">
         <v>286</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="15">
@@ -3242,24 +3242,24 @@
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="C17" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="D17" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="E17" s="28" t="s">
         <v>292</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>293</v>
       </c>
       <c r="G17" s="12">
         <v>40472.0</v>
@@ -3271,9 +3271,9 @@
         <v>20</v>
       </c>
       <c r="L17" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="M17" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="M17" s="25" t="s">
         <v>43</v>
       </c>
       <c r="N17" s="41"/>
@@ -3291,19 +3291,19 @@
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="C18" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="D18" s="10" t="s">
+      <c r="E18" s="28" t="s">
         <v>296</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>297</v>
       </c>
       <c r="G18" s="12">
         <v>37807.0</v>
@@ -3315,9 +3315,9 @@
         <v>20</v>
       </c>
       <c r="L18" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="M18" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="M18" s="25" t="s">
         <v>43</v>
       </c>
       <c r="N18" s="41"/>
@@ -3335,19 +3335,19 @@
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="C19" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="D19" s="10" t="s">
+      <c r="E19" s="28" t="s">
         <v>300</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>301</v>
       </c>
       <c r="G19" s="12">
         <v>37260.0</v>
@@ -3359,9 +3359,9 @@
         <v>20</v>
       </c>
       <c r="L19" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="M19" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="M19" s="25" t="s">
         <v>43</v>
       </c>
       <c r="N19" s="41"/>
@@ -3379,19 +3379,19 @@
     </row>
     <row r="20">
       <c r="A20" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="C20" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="D20" s="10" t="s">
+      <c r="E20" s="28" t="s">
         <v>304</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>305</v>
       </c>
       <c r="G20" s="12">
         <v>36763.0</v>
@@ -3403,9 +3403,9 @@
         <v>20</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="M20" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="M20" s="25" t="s">
         <v>43</v>
       </c>
       <c r="N20" s="41"/>
@@ -3423,19 +3423,19 @@
     </row>
     <row r="21">
       <c r="A21" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="C21" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="D21" s="10" t="s">
+      <c r="E21" s="28" t="s">
         <v>308</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>309</v>
       </c>
       <c r="G21" s="12">
         <v>40246.0</v>
@@ -3447,9 +3447,9 @@
         <v>20</v>
       </c>
       <c r="L21" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="M21" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="M21" s="25" t="s">
         <v>43</v>
       </c>
       <c r="N21" s="41"/>
@@ -3467,19 +3467,19 @@
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="C22" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="D22" s="10" t="s">
+      <c r="E22" s="28" t="s">
         <v>312</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>313</v>
       </c>
       <c r="G22" s="12">
         <v>44375.0</v>
@@ -3491,9 +3491,9 @@
         <v>20</v>
       </c>
       <c r="L22" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="M22" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="M22" s="25" t="s">
         <v>43</v>
       </c>
       <c r="N22" s="41"/>
@@ -3511,19 +3511,19 @@
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="C23" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="D23" s="10" t="s">
+      <c r="E23" s="28" t="s">
         <v>316</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>317</v>
       </c>
       <c r="G23" s="12">
         <v>37946.0</v>
@@ -3535,9 +3535,9 @@
         <v>20</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="M23" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="M23" s="25" t="s">
         <v>43</v>
       </c>
       <c r="N23" s="41"/>
@@ -3555,19 +3555,19 @@
     </row>
     <row r="24">
       <c r="A24" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="C24" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="D24" s="10" t="s">
+      <c r="E24" s="28" t="s">
         <v>320</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>321</v>
       </c>
       <c r="G24" s="12">
         <v>40575.0</v>
@@ -3579,9 +3579,9 @@
         <v>20</v>
       </c>
       <c r="L24" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="M24" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="M24" s="25" t="s">
         <v>43</v>
       </c>
       <c r="N24" s="41"/>
@@ -3599,19 +3599,19 @@
     </row>
     <row r="25">
       <c r="A25" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="C25" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="D25" s="10" t="s">
+      <c r="E25" s="28" t="s">
         <v>324</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>325</v>
       </c>
       <c r="G25" s="12">
         <v>38107.0</v>
@@ -3623,9 +3623,9 @@
         <v>20</v>
       </c>
       <c r="L25" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="M25" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="M25" s="25" t="s">
         <v>43</v>
       </c>
       <c r="N25" s="41"/>
@@ -3643,19 +3643,19 @@
     </row>
     <row r="26">
       <c r="A26" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="C26" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="D26" s="10" t="s">
+      <c r="E26" s="28" t="s">
         <v>328</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>329</v>
       </c>
       <c r="G26" s="12">
         <v>39594.0</v>
@@ -3667,9 +3667,9 @@
         <v>20</v>
       </c>
       <c r="L26" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="M26" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="M26" s="25" t="s">
         <v>43</v>
       </c>
       <c r="N26" s="41"/>
@@ -3687,19 +3687,19 @@
     </row>
     <row r="27">
       <c r="A27" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="C27" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="D27" s="10" t="s">
+      <c r="E27" s="28" t="s">
         <v>332</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>333</v>
       </c>
       <c r="G27" s="12">
         <v>43488.0</v>
@@ -3711,9 +3711,9 @@
         <v>20</v>
       </c>
       <c r="L27" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="M27" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="M27" s="25" t="s">
         <v>43</v>
       </c>
       <c r="N27" s="41"/>
@@ -3731,19 +3731,19 @@
     </row>
     <row r="28">
       <c r="A28" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="C28" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="D28" s="10" t="s">
+      <c r="E28" s="28" t="s">
         <v>336</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>337</v>
       </c>
       <c r="G28" s="12">
         <v>41263.0</v>
@@ -3755,9 +3755,9 @@
         <v>20</v>
       </c>
       <c r="L28" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="M28" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="M28" s="25" t="s">
         <v>43</v>
       </c>
       <c r="N28" s="41"/>
@@ -3775,19 +3775,19 @@
     </row>
     <row r="29">
       <c r="A29" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="C29" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="D29" s="10" t="s">
+      <c r="E29" s="28" t="s">
         <v>340</v>
-      </c>
-      <c r="E29" s="28" t="s">
-        <v>341</v>
       </c>
       <c r="G29" s="12">
         <v>41143.0</v>
@@ -3799,9 +3799,9 @@
         <v>20</v>
       </c>
       <c r="L29" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="M29" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="M29" s="25" t="s">
         <v>43</v>
       </c>
       <c r="N29" s="41"/>
@@ -4022,24 +4022,24 @@
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="C6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="E6" s="21" t="s">
         <v>344</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>345</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="23"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="20">
         <v>45506.0</v>
       </c>
@@ -4049,43 +4049,43 @@
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="C7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="15" t="s">
+      <c r="E7" s="25" t="s">
         <v>348</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>349</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="23"/>
-      <c r="K7" s="25"/>
+      <c r="H7" s="22"/>
+      <c r="K7" s="24"/>
     </row>
     <row r="8">
-      <c r="C8" s="24"/>
-      <c r="H8" s="23"/>
-      <c r="K8" s="25"/>
+      <c r="C8" s="23"/>
+      <c r="H8" s="22"/>
+      <c r="K8" s="24"/>
     </row>
     <row r="9">
-      <c r="C9" s="24"/>
-      <c r="H9" s="23"/>
-      <c r="K9" s="25"/>
+      <c r="C9" s="23"/>
+      <c r="H9" s="22"/>
+      <c r="K9" s="24"/>
     </row>
     <row r="10">
-      <c r="C10" s="24"/>
-      <c r="H10" s="23"/>
-      <c r="K10" s="25"/>
+      <c r="C10" s="23"/>
+      <c r="H10" s="22"/>
+      <c r="K10" s="24"/>
     </row>
     <row r="11">
-      <c r="H11" s="23"/>
+      <c r="H11" s="22"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C6:C7">
@@ -4242,24 +4242,24 @@
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="C6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="E6" s="25" t="s">
         <v>352</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>353</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="23"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="20">
         <v>45506.0</v>
       </c>
@@ -4268,27 +4268,27 @@
       </c>
     </row>
     <row r="7">
-      <c r="C7" s="24"/>
-      <c r="H7" s="23"/>
-      <c r="K7" s="25"/>
+      <c r="C7" s="23"/>
+      <c r="H7" s="22"/>
+      <c r="K7" s="24"/>
     </row>
     <row r="8">
-      <c r="C8" s="24"/>
-      <c r="H8" s="23"/>
-      <c r="K8" s="25"/>
+      <c r="C8" s="23"/>
+      <c r="H8" s="22"/>
+      <c r="K8" s="24"/>
     </row>
     <row r="9">
-      <c r="C9" s="24"/>
-      <c r="H9" s="23"/>
-      <c r="K9" s="25"/>
+      <c r="C9" s="23"/>
+      <c r="H9" s="22"/>
+      <c r="K9" s="24"/>
     </row>
     <row r="10">
-      <c r="C10" s="24"/>
-      <c r="H10" s="23"/>
-      <c r="K10" s="25"/>
+      <c r="C10" s="23"/>
+      <c r="H10" s="22"/>
+      <c r="K10" s="24"/>
     </row>
     <row r="11">
-      <c r="H11" s="23"/>
+      <c r="H11" s="22"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C6">
@@ -4411,96 +4411,96 @@
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
-      <c r="G2" s="23"/>
+      <c r="G2" s="22"/>
       <c r="I2" s="14"/>
-      <c r="J2" s="23"/>
+      <c r="J2" s="22"/>
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
       <c r="M2" s="15"/>
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>354</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>355</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="E3" s="25" t="s">
         <v>356</v>
       </c>
-      <c r="E3" s="26" t="s">
-        <v>357</v>
-      </c>
-      <c r="G3" s="23">
+      <c r="G3" s="22">
         <v>43245.0</v>
       </c>
       <c r="I3" s="14">
         <v>44762.0</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3" s="22">
         <v>44848.0</v>
       </c>
       <c r="K3" s="15" t="s">
         <v>20</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="M3" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="M3" s="25" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>252</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>253</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>356</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>358</v>
-      </c>
-      <c r="G4" s="23">
+        <v>355</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="G4" s="22">
         <v>43524.0</v>
       </c>
       <c r="I4" s="14">
         <v>44762.0</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="22">
         <v>44848.0</v>
       </c>
       <c r="K4" s="15" t="s">
         <v>20</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="M4" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="M4" s="25" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="24"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="23"/>
       <c r="I5" s="33"/>
       <c r="J5" s="34"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
       <c r="N5" s="34"/>
       <c r="O5" s="34"/>
       <c r="P5" s="34"/>
@@ -4518,17 +4518,17 @@
       <c r="A6" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="24"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="23"/>
       <c r="I6" s="33"/>
       <c r="J6" s="34"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
       <c r="N6" s="34"/>
       <c r="O6" s="34"/>
       <c r="P6" s="34"/>
@@ -4543,34 +4543,34 @@
       <c r="Y6" s="34"/>
     </row>
     <row r="7">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="B7" s="23" t="s">
         <v>359</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="C7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="E7" s="35" t="s">
         <v>360</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>356</v>
-      </c>
-      <c r="E7" s="35" t="s">
+      <c r="F7" s="26" t="s">
         <v>361</v>
       </c>
-      <c r="F7" s="21" t="s">
-        <v>362</v>
-      </c>
-      <c r="G7" s="24"/>
+      <c r="G7" s="23"/>
       <c r="I7" s="33">
         <v>44762.0</v>
       </c>
       <c r="J7" s="34"/>
-      <c r="K7" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="24" t="s">
-        <v>113</v>
+      <c r="K7" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>112</v>
       </c>
       <c r="M7" s="35" t="s">
         <v>43</v>
@@ -4732,24 +4732,24 @@
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="C6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>364</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="E6" s="21" t="s">
         <v>365</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>366</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="23"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="20">
         <v>45506.0</v>
       </c>
@@ -4758,27 +4758,27 @@
       </c>
     </row>
     <row r="7">
-      <c r="C7" s="24"/>
-      <c r="H7" s="23"/>
-      <c r="K7" s="25"/>
+      <c r="C7" s="23"/>
+      <c r="H7" s="22"/>
+      <c r="K7" s="24"/>
     </row>
     <row r="8">
-      <c r="C8" s="24"/>
-      <c r="H8" s="23"/>
-      <c r="K8" s="25"/>
+      <c r="C8" s="23"/>
+      <c r="H8" s="22"/>
+      <c r="K8" s="24"/>
     </row>
     <row r="9">
-      <c r="C9" s="24"/>
-      <c r="H9" s="23"/>
-      <c r="K9" s="25"/>
+      <c r="C9" s="23"/>
+      <c r="H9" s="22"/>
+      <c r="K9" s="24"/>
     </row>
     <row r="10">
-      <c r="C10" s="24"/>
-      <c r="H10" s="23"/>
-      <c r="K10" s="25"/>
+      <c r="C10" s="23"/>
+      <c r="H10" s="22"/>
+      <c r="K10" s="24"/>
     </row>
     <row r="11">
-      <c r="H11" s="23"/>
+      <c r="H11" s="22"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C6">
@@ -4934,24 +4934,24 @@
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="C6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>366</v>
+      <c r="E6" s="21" t="s">
+        <v>365</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="23"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="20">
         <v>45506.0</v>
       </c>
@@ -4960,27 +4960,27 @@
       </c>
     </row>
     <row r="7">
-      <c r="C7" s="24"/>
-      <c r="H7" s="23"/>
-      <c r="K7" s="25"/>
+      <c r="C7" s="23"/>
+      <c r="H7" s="22"/>
+      <c r="K7" s="24"/>
     </row>
     <row r="8">
-      <c r="C8" s="24"/>
-      <c r="H8" s="23"/>
-      <c r="K8" s="25"/>
+      <c r="C8" s="23"/>
+      <c r="H8" s="22"/>
+      <c r="K8" s="24"/>
     </row>
     <row r="9">
-      <c r="C9" s="24"/>
-      <c r="H9" s="23"/>
-      <c r="K9" s="25"/>
+      <c r="C9" s="23"/>
+      <c r="H9" s="22"/>
+      <c r="K9" s="24"/>
     </row>
     <row r="10">
-      <c r="C10" s="24"/>
-      <c r="H10" s="23"/>
-      <c r="K10" s="25"/>
+      <c r="C10" s="23"/>
+      <c r="H10" s="22"/>
+      <c r="K10" s="24"/>
     </row>
     <row r="11">
-      <c r="H11" s="23"/>
+      <c r="H11" s="22"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C6">
@@ -5136,24 +5136,24 @@
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>370</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="C6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="E6" s="21" t="s">
         <v>372</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>373</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="23"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="20">
         <v>45506.0</v>
       </c>
@@ -5162,27 +5162,27 @@
       </c>
     </row>
     <row r="7">
-      <c r="C7" s="24"/>
-      <c r="H7" s="23"/>
-      <c r="K7" s="25"/>
+      <c r="C7" s="23"/>
+      <c r="H7" s="22"/>
+      <c r="K7" s="24"/>
     </row>
     <row r="8">
-      <c r="C8" s="24"/>
-      <c r="H8" s="23"/>
-      <c r="K8" s="25"/>
+      <c r="C8" s="23"/>
+      <c r="H8" s="22"/>
+      <c r="K8" s="24"/>
     </row>
     <row r="9">
-      <c r="C9" s="24"/>
-      <c r="H9" s="23"/>
-      <c r="K9" s="25"/>
+      <c r="C9" s="23"/>
+      <c r="H9" s="22"/>
+      <c r="K9" s="24"/>
     </row>
     <row r="10">
-      <c r="C10" s="24"/>
-      <c r="H10" s="23"/>
-      <c r="K10" s="25"/>
+      <c r="C10" s="23"/>
+      <c r="H10" s="22"/>
+      <c r="K10" s="24"/>
     </row>
     <row r="11">
-      <c r="H11" s="23"/>
+      <c r="H11" s="22"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C6">
@@ -5314,19 +5314,19 @@
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="E3" s="28" t="s">
         <v>375</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>376</v>
       </c>
       <c r="G3" s="19">
         <v>43244.0</v>
@@ -5341,24 +5341,30 @@
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>377</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>378</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G4" s="19">
         <v>45492.0</v>
       </c>
       <c r="H4" s="14"/>
+      <c r="I4" s="22">
+        <v>45506.0</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="13"/>
@@ -5376,24 +5382,24 @@
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="C7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="E7" s="25" t="s">
         <v>381</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>375</v>
-      </c>
-      <c r="E7" s="26" t="s">
+      <c r="F7" s="15" t="s">
         <v>382</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>383</v>
-      </c>
-      <c r="H7" s="23"/>
+      <c r="H7" s="22"/>
       <c r="I7" s="20">
         <v>45336.0</v>
       </c>
@@ -5402,27 +5408,27 @@
       </c>
     </row>
     <row r="8">
-      <c r="C8" s="24"/>
-      <c r="H8" s="23"/>
-      <c r="K8" s="25"/>
+      <c r="C8" s="23"/>
+      <c r="H8" s="22"/>
+      <c r="K8" s="24"/>
     </row>
     <row r="9">
-      <c r="C9" s="24"/>
-      <c r="H9" s="23"/>
-      <c r="K9" s="25"/>
+      <c r="C9" s="23"/>
+      <c r="H9" s="22"/>
+      <c r="K9" s="24"/>
     </row>
     <row r="10">
-      <c r="C10" s="24"/>
-      <c r="H10" s="23"/>
-      <c r="K10" s="25"/>
+      <c r="C10" s="23"/>
+      <c r="H10" s="22"/>
+      <c r="K10" s="24"/>
     </row>
     <row r="11">
-      <c r="C11" s="24"/>
-      <c r="H11" s="23"/>
-      <c r="K11" s="25"/>
+      <c r="C11" s="23"/>
+      <c r="H11" s="22"/>
+      <c r="K11" s="24"/>
     </row>
     <row r="12">
-      <c r="H12" s="23"/>
+      <c r="H12" s="22"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C7">
@@ -5556,19 +5562,19 @@
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>384</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>385</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="E3" s="45" t="s">
         <v>386</v>
-      </c>
-      <c r="E3" s="45" t="s">
-        <v>387</v>
       </c>
       <c r="G3" s="19">
         <v>45149.0</v>
@@ -5597,21 +5603,21 @@
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="C6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>389</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>386</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>390</v>
-      </c>
-      <c r="H6" s="23"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="20">
         <v>45336.0</v>
       </c>
@@ -5620,27 +5626,27 @@
       </c>
     </row>
     <row r="7">
-      <c r="C7" s="24"/>
-      <c r="H7" s="23"/>
-      <c r="K7" s="25"/>
+      <c r="C7" s="23"/>
+      <c r="H7" s="22"/>
+      <c r="K7" s="24"/>
     </row>
     <row r="8">
-      <c r="C8" s="24"/>
-      <c r="H8" s="23"/>
-      <c r="K8" s="25"/>
+      <c r="C8" s="23"/>
+      <c r="H8" s="22"/>
+      <c r="K8" s="24"/>
     </row>
     <row r="9">
-      <c r="C9" s="24"/>
-      <c r="H9" s="23"/>
-      <c r="K9" s="25"/>
+      <c r="C9" s="23"/>
+      <c r="H9" s="22"/>
+      <c r="K9" s="24"/>
     </row>
     <row r="10">
-      <c r="C10" s="24"/>
-      <c r="H10" s="23"/>
-      <c r="K10" s="25"/>
+      <c r="C10" s="23"/>
+      <c r="H10" s="22"/>
+      <c r="K10" s="24"/>
     </row>
     <row r="11">
-      <c r="H11" s="23"/>
+      <c r="H11" s="22"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C6">
@@ -5796,24 +5802,24 @@
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>391</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="E6" s="21" t="s">
         <v>392</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>393</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="23"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="20">
         <v>45506.0</v>
       </c>
@@ -5822,27 +5828,27 @@
       </c>
     </row>
     <row r="7">
-      <c r="C7" s="24"/>
-      <c r="H7" s="23"/>
-      <c r="K7" s="25"/>
+      <c r="C7" s="23"/>
+      <c r="H7" s="22"/>
+      <c r="K7" s="24"/>
     </row>
     <row r="8">
-      <c r="C8" s="24"/>
-      <c r="H8" s="23"/>
-      <c r="K8" s="25"/>
+      <c r="C8" s="23"/>
+      <c r="H8" s="22"/>
+      <c r="K8" s="24"/>
     </row>
     <row r="9">
-      <c r="C9" s="24"/>
-      <c r="H9" s="23"/>
-      <c r="K9" s="25"/>
+      <c r="C9" s="23"/>
+      <c r="H9" s="22"/>
+      <c r="K9" s="24"/>
     </row>
     <row r="10">
-      <c r="C10" s="24"/>
-      <c r="H10" s="23"/>
-      <c r="K10" s="25"/>
+      <c r="C10" s="23"/>
+      <c r="H10" s="22"/>
+      <c r="K10" s="24"/>
     </row>
     <row r="11">
-      <c r="H11" s="23"/>
+      <c r="H11" s="22"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C6">
@@ -6003,19 +6009,19 @@
       <c r="B6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="21" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="23"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="20">
         <v>45506.0</v>
       </c>
@@ -6024,27 +6030,27 @@
       </c>
     </row>
     <row r="7">
-      <c r="C7" s="24"/>
-      <c r="H7" s="23"/>
-      <c r="K7" s="25"/>
+      <c r="C7" s="23"/>
+      <c r="H7" s="22"/>
+      <c r="K7" s="24"/>
     </row>
     <row r="8">
-      <c r="C8" s="24"/>
-      <c r="H8" s="23"/>
-      <c r="K8" s="25"/>
+      <c r="C8" s="23"/>
+      <c r="H8" s="22"/>
+      <c r="K8" s="24"/>
     </row>
     <row r="9">
-      <c r="C9" s="24"/>
-      <c r="H9" s="23"/>
-      <c r="K9" s="25"/>
+      <c r="C9" s="23"/>
+      <c r="H9" s="22"/>
+      <c r="K9" s="24"/>
     </row>
     <row r="10">
-      <c r="C10" s="24"/>
-      <c r="H10" s="23"/>
-      <c r="K10" s="25"/>
+      <c r="C10" s="23"/>
+      <c r="H10" s="22"/>
+      <c r="K10" s="24"/>
     </row>
     <row r="11">
-      <c r="H11" s="23"/>
+      <c r="H11" s="22"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C6">
@@ -6200,24 +6206,24 @@
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>394</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="E6" s="21" t="s">
         <v>395</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>396</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="23"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="20">
         <v>45506.0</v>
       </c>
@@ -6226,27 +6232,27 @@
       </c>
     </row>
     <row r="7">
-      <c r="C7" s="24"/>
-      <c r="H7" s="23"/>
-      <c r="K7" s="25"/>
+      <c r="C7" s="23"/>
+      <c r="H7" s="22"/>
+      <c r="K7" s="24"/>
     </row>
     <row r="8">
-      <c r="C8" s="24"/>
-      <c r="H8" s="23"/>
-      <c r="K8" s="25"/>
+      <c r="C8" s="23"/>
+      <c r="H8" s="22"/>
+      <c r="K8" s="24"/>
     </row>
     <row r="9">
-      <c r="C9" s="24"/>
-      <c r="H9" s="23"/>
-      <c r="K9" s="25"/>
+      <c r="C9" s="23"/>
+      <c r="H9" s="22"/>
+      <c r="K9" s="24"/>
     </row>
     <row r="10">
-      <c r="C10" s="24"/>
-      <c r="H10" s="23"/>
-      <c r="K10" s="25"/>
+      <c r="C10" s="23"/>
+      <c r="H10" s="22"/>
+      <c r="K10" s="24"/>
     </row>
     <row r="11">
-      <c r="H11" s="23"/>
+      <c r="H11" s="22"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C6">
@@ -6402,24 +6408,24 @@
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>397</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="C6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="E6" s="21" t="s">
         <v>399</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>400</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="23"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="20">
         <v>45506.0</v>
       </c>
@@ -6428,27 +6434,27 @@
       </c>
     </row>
     <row r="7">
-      <c r="C7" s="24"/>
-      <c r="H7" s="23"/>
-      <c r="K7" s="25"/>
+      <c r="C7" s="23"/>
+      <c r="H7" s="22"/>
+      <c r="K7" s="24"/>
     </row>
     <row r="8">
-      <c r="C8" s="24"/>
-      <c r="H8" s="23"/>
-      <c r="K8" s="25"/>
+      <c r="C8" s="23"/>
+      <c r="H8" s="22"/>
+      <c r="K8" s="24"/>
     </row>
     <row r="9">
-      <c r="C9" s="24"/>
-      <c r="H9" s="23"/>
-      <c r="K9" s="25"/>
+      <c r="C9" s="23"/>
+      <c r="H9" s="22"/>
+      <c r="K9" s="24"/>
     </row>
     <row r="10">
-      <c r="C10" s="24"/>
-      <c r="H10" s="23"/>
-      <c r="K10" s="25"/>
+      <c r="C10" s="23"/>
+      <c r="H10" s="22"/>
+      <c r="K10" s="24"/>
     </row>
     <row r="11">
-      <c r="H11" s="23"/>
+      <c r="H11" s="22"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C6">
@@ -6604,24 +6610,24 @@
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>401</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="C6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>402</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="E6" s="21" t="s">
         <v>403</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>404</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="23"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="20">
         <v>45506.0</v>
       </c>
@@ -6630,27 +6636,27 @@
       </c>
     </row>
     <row r="7">
-      <c r="C7" s="24"/>
-      <c r="H7" s="23"/>
-      <c r="K7" s="25"/>
+      <c r="C7" s="23"/>
+      <c r="H7" s="22"/>
+      <c r="K7" s="24"/>
     </row>
     <row r="8">
-      <c r="C8" s="24"/>
-      <c r="H8" s="23"/>
-      <c r="K8" s="25"/>
+      <c r="C8" s="23"/>
+      <c r="H8" s="22"/>
+      <c r="K8" s="24"/>
     </row>
     <row r="9">
-      <c r="C9" s="24"/>
-      <c r="H9" s="23"/>
-      <c r="K9" s="25"/>
+      <c r="C9" s="23"/>
+      <c r="H9" s="22"/>
+      <c r="K9" s="24"/>
     </row>
     <row r="10">
-      <c r="C10" s="24"/>
-      <c r="H10" s="23"/>
-      <c r="K10" s="25"/>
+      <c r="C10" s="23"/>
+      <c r="H10" s="22"/>
+      <c r="K10" s="24"/>
     </row>
     <row r="11">
-      <c r="H11" s="23"/>
+      <c r="H11" s="22"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C6">
@@ -6806,24 +6812,24 @@
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>405</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="C6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>406</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="E6" s="21" t="s">
         <v>407</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>408</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="23"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="20">
         <v>45506.0</v>
       </c>
@@ -6832,27 +6838,27 @@
       </c>
     </row>
     <row r="7">
-      <c r="C7" s="24"/>
-      <c r="H7" s="23"/>
-      <c r="K7" s="25"/>
+      <c r="C7" s="23"/>
+      <c r="H7" s="22"/>
+      <c r="K7" s="24"/>
     </row>
     <row r="8">
-      <c r="C8" s="24"/>
-      <c r="H8" s="23"/>
-      <c r="K8" s="25"/>
+      <c r="C8" s="23"/>
+      <c r="H8" s="22"/>
+      <c r="K8" s="24"/>
     </row>
     <row r="9">
-      <c r="C9" s="24"/>
-      <c r="H9" s="23"/>
-      <c r="K9" s="25"/>
+      <c r="C9" s="23"/>
+      <c r="H9" s="22"/>
+      <c r="K9" s="24"/>
     </row>
     <row r="10">
-      <c r="C10" s="24"/>
-      <c r="H10" s="23"/>
-      <c r="K10" s="25"/>
+      <c r="C10" s="23"/>
+      <c r="H10" s="22"/>
+      <c r="K10" s="24"/>
     </row>
     <row r="11">
-      <c r="H11" s="23"/>
+      <c r="H11" s="22"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C6">
@@ -7008,24 +7014,24 @@
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>409</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="C6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>410</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="E6" s="21" t="s">
         <v>411</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>412</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="23"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="20">
         <v>45506.0</v>
       </c>
@@ -7034,27 +7040,27 @@
       </c>
     </row>
     <row r="7">
-      <c r="C7" s="24"/>
-      <c r="H7" s="23"/>
-      <c r="K7" s="25"/>
+      <c r="C7" s="23"/>
+      <c r="H7" s="22"/>
+      <c r="K7" s="24"/>
     </row>
     <row r="8">
-      <c r="C8" s="24"/>
-      <c r="H8" s="23"/>
-      <c r="K8" s="25"/>
+      <c r="C8" s="23"/>
+      <c r="H8" s="22"/>
+      <c r="K8" s="24"/>
     </row>
     <row r="9">
-      <c r="C9" s="24"/>
-      <c r="H9" s="23"/>
-      <c r="K9" s="25"/>
+      <c r="C9" s="23"/>
+      <c r="H9" s="22"/>
+      <c r="K9" s="24"/>
     </row>
     <row r="10">
-      <c r="C10" s="24"/>
-      <c r="H10" s="23"/>
-      <c r="K10" s="25"/>
+      <c r="C10" s="23"/>
+      <c r="H10" s="22"/>
+      <c r="K10" s="24"/>
     </row>
     <row r="11">
-      <c r="H11" s="23"/>
+      <c r="H11" s="22"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C6">
@@ -7210,24 +7216,24 @@
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="C6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="E6" s="21" t="s">
         <v>415</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>416</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="23"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="20">
         <v>45506.0</v>
       </c>
@@ -7236,27 +7242,27 @@
       </c>
     </row>
     <row r="7">
-      <c r="C7" s="24"/>
-      <c r="H7" s="23"/>
-      <c r="K7" s="25"/>
+      <c r="C7" s="23"/>
+      <c r="H7" s="22"/>
+      <c r="K7" s="24"/>
     </row>
     <row r="8">
-      <c r="C8" s="24"/>
-      <c r="H8" s="23"/>
-      <c r="K8" s="25"/>
+      <c r="C8" s="23"/>
+      <c r="H8" s="22"/>
+      <c r="K8" s="24"/>
     </row>
     <row r="9">
-      <c r="C9" s="24"/>
-      <c r="H9" s="23"/>
-      <c r="K9" s="25"/>
+      <c r="C9" s="23"/>
+      <c r="H9" s="22"/>
+      <c r="K9" s="24"/>
     </row>
     <row r="10">
-      <c r="C10" s="24"/>
-      <c r="H10" s="23"/>
-      <c r="K10" s="25"/>
+      <c r="C10" s="23"/>
+      <c r="H10" s="22"/>
+      <c r="K10" s="24"/>
     </row>
     <row r="11">
-      <c r="H11" s="23"/>
+      <c r="H11" s="22"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C6">
@@ -7412,24 +7418,24 @@
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>417</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="C6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>418</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="E6" s="21" t="s">
         <v>419</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>420</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="23"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="20">
         <v>45506.0</v>
       </c>
@@ -7438,27 +7444,27 @@
       </c>
     </row>
     <row r="7">
-      <c r="C7" s="24"/>
-      <c r="H7" s="23"/>
-      <c r="K7" s="25"/>
+      <c r="C7" s="23"/>
+      <c r="H7" s="22"/>
+      <c r="K7" s="24"/>
     </row>
     <row r="8">
-      <c r="C8" s="24"/>
-      <c r="H8" s="23"/>
-      <c r="K8" s="25"/>
+      <c r="C8" s="23"/>
+      <c r="H8" s="22"/>
+      <c r="K8" s="24"/>
     </row>
     <row r="9">
-      <c r="C9" s="24"/>
-      <c r="H9" s="23"/>
-      <c r="K9" s="25"/>
+      <c r="C9" s="23"/>
+      <c r="H9" s="22"/>
+      <c r="K9" s="24"/>
     </row>
     <row r="10">
-      <c r="C10" s="24"/>
-      <c r="H10" s="23"/>
-      <c r="K10" s="25"/>
+      <c r="C10" s="23"/>
+      <c r="H10" s="22"/>
+      <c r="K10" s="24"/>
     </row>
     <row r="11">
-      <c r="H11" s="23"/>
+      <c r="H11" s="22"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C6">
@@ -7614,24 +7620,24 @@
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>421</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="E6" s="25" t="s">
         <v>422</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>423</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="23"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="20">
         <v>45506.0</v>
       </c>
@@ -7640,27 +7646,27 @@
       </c>
     </row>
     <row r="7">
-      <c r="C7" s="24"/>
-      <c r="H7" s="23"/>
-      <c r="K7" s="25"/>
+      <c r="C7" s="23"/>
+      <c r="H7" s="22"/>
+      <c r="K7" s="24"/>
     </row>
     <row r="8">
-      <c r="C8" s="24"/>
-      <c r="H8" s="23"/>
-      <c r="K8" s="25"/>
+      <c r="C8" s="23"/>
+      <c r="H8" s="22"/>
+      <c r="K8" s="24"/>
     </row>
     <row r="9">
-      <c r="C9" s="24"/>
-      <c r="H9" s="23"/>
-      <c r="K9" s="25"/>
+      <c r="C9" s="23"/>
+      <c r="H9" s="22"/>
+      <c r="K9" s="24"/>
     </row>
     <row r="10">
-      <c r="C10" s="24"/>
-      <c r="H10" s="23"/>
-      <c r="K10" s="25"/>
+      <c r="C10" s="23"/>
+      <c r="H10" s="22"/>
+      <c r="K10" s="24"/>
     </row>
     <row r="11">
-      <c r="H11" s="23"/>
+      <c r="H11" s="22"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C6">
@@ -7816,24 +7822,24 @@
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>424</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="C6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="E6" s="25" t="s">
         <v>426</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>427</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="23"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="20">
         <v>45506.0</v>
       </c>
@@ -7842,27 +7848,27 @@
       </c>
     </row>
     <row r="7">
-      <c r="C7" s="24"/>
-      <c r="H7" s="23"/>
-      <c r="K7" s="25"/>
+      <c r="C7" s="23"/>
+      <c r="H7" s="22"/>
+      <c r="K7" s="24"/>
     </row>
     <row r="8">
-      <c r="C8" s="24"/>
-      <c r="H8" s="23"/>
-      <c r="K8" s="25"/>
+      <c r="C8" s="23"/>
+      <c r="H8" s="22"/>
+      <c r="K8" s="24"/>
     </row>
     <row r="9">
-      <c r="C9" s="24"/>
-      <c r="H9" s="23"/>
-      <c r="K9" s="25"/>
+      <c r="C9" s="23"/>
+      <c r="H9" s="22"/>
+      <c r="K9" s="24"/>
     </row>
     <row r="10">
-      <c r="C10" s="24"/>
-      <c r="H10" s="23"/>
-      <c r="K10" s="25"/>
+      <c r="C10" s="23"/>
+      <c r="H10" s="22"/>
+      <c r="K10" s="24"/>
     </row>
     <row r="11">
-      <c r="H11" s="23"/>
+      <c r="H11" s="22"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C6">
@@ -8018,24 +8024,24 @@
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>428</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="C6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>429</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="E6" s="25" t="s">
         <v>430</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>431</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="23"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="20">
         <v>45506.0</v>
       </c>
@@ -8044,27 +8050,27 @@
       </c>
     </row>
     <row r="7">
-      <c r="C7" s="24"/>
-      <c r="H7" s="23"/>
-      <c r="K7" s="25"/>
+      <c r="C7" s="23"/>
+      <c r="H7" s="22"/>
+      <c r="K7" s="24"/>
     </row>
     <row r="8">
-      <c r="C8" s="24"/>
-      <c r="H8" s="23"/>
-      <c r="K8" s="25"/>
+      <c r="C8" s="23"/>
+      <c r="H8" s="22"/>
+      <c r="K8" s="24"/>
     </row>
     <row r="9">
-      <c r="C9" s="24"/>
-      <c r="H9" s="23"/>
-      <c r="K9" s="25"/>
+      <c r="C9" s="23"/>
+      <c r="H9" s="22"/>
+      <c r="K9" s="24"/>
     </row>
     <row r="10">
-      <c r="C10" s="24"/>
-      <c r="H10" s="23"/>
-      <c r="K10" s="25"/>
+      <c r="C10" s="23"/>
+      <c r="H10" s="22"/>
+      <c r="K10" s="24"/>
     </row>
     <row r="11">
-      <c r="H11" s="23"/>
+      <c r="H11" s="22"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C6">
@@ -8225,19 +8231,19 @@
       <c r="B6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="25" t="s">
         <v>28</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="23"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="20">
         <v>45506.0</v>
       </c>
@@ -8246,27 +8252,27 @@
       </c>
     </row>
     <row r="7">
-      <c r="C7" s="24"/>
-      <c r="H7" s="23"/>
-      <c r="K7" s="25"/>
+      <c r="C7" s="23"/>
+      <c r="H7" s="22"/>
+      <c r="K7" s="24"/>
     </row>
     <row r="8">
-      <c r="C8" s="24"/>
-      <c r="H8" s="23"/>
-      <c r="K8" s="25"/>
+      <c r="C8" s="23"/>
+      <c r="H8" s="22"/>
+      <c r="K8" s="24"/>
     </row>
     <row r="9">
-      <c r="C9" s="24"/>
-      <c r="H9" s="23"/>
-      <c r="K9" s="25"/>
+      <c r="C9" s="23"/>
+      <c r="H9" s="22"/>
+      <c r="K9" s="24"/>
     </row>
     <row r="10">
-      <c r="C10" s="24"/>
-      <c r="H10" s="23"/>
-      <c r="K10" s="25"/>
+      <c r="C10" s="23"/>
+      <c r="H10" s="22"/>
+      <c r="K10" s="24"/>
     </row>
     <row r="11">
-      <c r="H11" s="23"/>
+      <c r="H11" s="22"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C6">
@@ -8422,24 +8428,24 @@
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>432</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="C6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>433</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="E6" s="25" t="s">
         <v>434</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>435</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="23"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="20">
         <v>45506.0</v>
       </c>
@@ -8448,27 +8454,27 @@
       </c>
     </row>
     <row r="7">
-      <c r="C7" s="24"/>
-      <c r="H7" s="23"/>
-      <c r="K7" s="25"/>
+      <c r="C7" s="23"/>
+      <c r="H7" s="22"/>
+      <c r="K7" s="24"/>
     </row>
     <row r="8">
-      <c r="C8" s="24"/>
-      <c r="H8" s="23"/>
-      <c r="K8" s="25"/>
+      <c r="C8" s="23"/>
+      <c r="H8" s="22"/>
+      <c r="K8" s="24"/>
     </row>
     <row r="9">
-      <c r="C9" s="24"/>
-      <c r="H9" s="23"/>
-      <c r="K9" s="25"/>
+      <c r="C9" s="23"/>
+      <c r="H9" s="22"/>
+      <c r="K9" s="24"/>
     </row>
     <row r="10">
-      <c r="C10" s="24"/>
-      <c r="H10" s="23"/>
-      <c r="K10" s="25"/>
+      <c r="C10" s="23"/>
+      <c r="H10" s="22"/>
+      <c r="K10" s="24"/>
     </row>
     <row r="11">
-      <c r="H11" s="23"/>
+      <c r="H11" s="22"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C6">
@@ -8624,24 +8630,24 @@
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>436</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="C6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>437</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="E6" s="25" t="s">
         <v>438</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>439</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="23"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="20">
         <v>45506.0</v>
       </c>
@@ -8650,27 +8656,27 @@
       </c>
     </row>
     <row r="7">
-      <c r="C7" s="24"/>
-      <c r="H7" s="23"/>
-      <c r="K7" s="25"/>
+      <c r="C7" s="23"/>
+      <c r="H7" s="22"/>
+      <c r="K7" s="24"/>
     </row>
     <row r="8">
-      <c r="C8" s="24"/>
-      <c r="H8" s="23"/>
-      <c r="K8" s="25"/>
+      <c r="C8" s="23"/>
+      <c r="H8" s="22"/>
+      <c r="K8" s="24"/>
     </row>
     <row r="9">
-      <c r="C9" s="24"/>
-      <c r="H9" s="23"/>
-      <c r="K9" s="25"/>
+      <c r="C9" s="23"/>
+      <c r="H9" s="22"/>
+      <c r="K9" s="24"/>
     </row>
     <row r="10">
-      <c r="C10" s="24"/>
-      <c r="H10" s="23"/>
-      <c r="K10" s="25"/>
+      <c r="C10" s="23"/>
+      <c r="H10" s="22"/>
+      <c r="K10" s="24"/>
     </row>
     <row r="11">
-      <c r="H11" s="23"/>
+      <c r="H11" s="22"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C6">
@@ -8826,24 +8832,24 @@
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>440</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="C6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>441</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="E6" s="25" t="s">
         <v>442</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>443</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="23"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="20">
         <v>45506.0</v>
       </c>
@@ -8852,27 +8858,27 @@
       </c>
     </row>
     <row r="7">
-      <c r="C7" s="24"/>
-      <c r="H7" s="23"/>
-      <c r="K7" s="25"/>
+      <c r="C7" s="23"/>
+      <c r="H7" s="22"/>
+      <c r="K7" s="24"/>
     </row>
     <row r="8">
-      <c r="C8" s="24"/>
-      <c r="H8" s="23"/>
-      <c r="K8" s="25"/>
+      <c r="C8" s="23"/>
+      <c r="H8" s="22"/>
+      <c r="K8" s="24"/>
     </row>
     <row r="9">
-      <c r="C9" s="24"/>
-      <c r="H9" s="23"/>
-      <c r="K9" s="25"/>
+      <c r="C9" s="23"/>
+      <c r="H9" s="22"/>
+      <c r="K9" s="24"/>
     </row>
     <row r="10">
-      <c r="C10" s="24"/>
-      <c r="H10" s="23"/>
-      <c r="K10" s="25"/>
+      <c r="C10" s="23"/>
+      <c r="H10" s="22"/>
+      <c r="K10" s="24"/>
     </row>
     <row r="11">
-      <c r="H11" s="23"/>
+      <c r="H11" s="22"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C6">
@@ -9028,24 +9034,24 @@
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="E6" s="25" t="s">
         <v>445</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>446</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="23"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="20">
         <v>45506.0</v>
       </c>
@@ -9054,27 +9060,27 @@
       </c>
     </row>
     <row r="7">
-      <c r="C7" s="24"/>
-      <c r="H7" s="23"/>
-      <c r="K7" s="25"/>
+      <c r="C7" s="23"/>
+      <c r="H7" s="22"/>
+      <c r="K7" s="24"/>
     </row>
     <row r="8">
-      <c r="C8" s="24"/>
-      <c r="H8" s="23"/>
-      <c r="K8" s="25"/>
+      <c r="C8" s="23"/>
+      <c r="H8" s="22"/>
+      <c r="K8" s="24"/>
     </row>
     <row r="9">
-      <c r="C9" s="24"/>
-      <c r="H9" s="23"/>
-      <c r="K9" s="25"/>
+      <c r="C9" s="23"/>
+      <c r="H9" s="22"/>
+      <c r="K9" s="24"/>
     </row>
     <row r="10">
-      <c r="C10" s="24"/>
-      <c r="H10" s="23"/>
-      <c r="K10" s="25"/>
+      <c r="C10" s="23"/>
+      <c r="H10" s="22"/>
+      <c r="K10" s="24"/>
     </row>
     <row r="11">
-      <c r="H11" s="23"/>
+      <c r="H11" s="22"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C6">
@@ -9206,19 +9212,19 @@
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>447</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>448</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="29" t="s">
+        <v>448</v>
+      </c>
+      <c r="E3" s="28" t="s">
         <v>449</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>450</v>
       </c>
       <c r="G3" s="12">
         <v>43831.0</v>
@@ -9230,27 +9236,27 @@
         <v>20</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="M3" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="M3" s="25" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="29" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>451</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>452</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="29" t="s">
+        <v>448</v>
+      </c>
+      <c r="E4" s="28" t="s">
         <v>449</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>450</v>
       </c>
       <c r="G4" s="12">
         <v>44927.0</v>
@@ -9262,87 +9268,87 @@
         <v>20</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="M4" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="M4" s="25" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>453</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>454</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="E5" s="25" t="s">
         <v>455</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="G5" s="46" t="s">
         <v>456</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="I5" s="22">
+        <v>44887.0</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="15" t="s">
         <v>457</v>
-      </c>
-      <c r="I5" s="23">
-        <v>44887.0</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>459</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>460</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="E6" s="21" t="s">
         <v>461</v>
       </c>
-      <c r="E6" s="22" t="s">
-        <v>462</v>
-      </c>
-      <c r="G6" s="23">
+      <c r="G6" s="22">
         <v>44927.0</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="22">
         <v>44888.0</v>
       </c>
       <c r="K6" s="15" t="s">
         <v>20</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>463</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>464</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D7" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="E7" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="E7" s="22" t="s">
-        <v>466</v>
-      </c>
-      <c r="G7" s="23">
+      <c r="G7" s="22">
         <v>45298.0</v>
       </c>
       <c r="I7" s="14">
@@ -9351,27 +9357,27 @@
       <c r="K7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="25" t="s">
-        <v>458</v>
+      <c r="L7" s="24" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>467</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>468</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D8" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="E8" s="25" t="s">
         <v>469</v>
       </c>
-      <c r="E8" s="26" t="s">
-        <v>470</v>
-      </c>
-      <c r="G8" s="23">
+      <c r="G8" s="22">
         <v>44933.0</v>
       </c>
       <c r="I8" s="14">
@@ -9380,27 +9386,27 @@
       <c r="K8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="25" t="s">
-        <v>458</v>
+      <c r="L8" s="24" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="15" t="s">
+        <v>470</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>471</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>472</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="E9" s="25" t="s">
         <v>473</v>
       </c>
-      <c r="E9" s="26" t="s">
-        <v>474</v>
-      </c>
-      <c r="G9" s="23">
+      <c r="G9" s="22">
         <v>44206.0</v>
       </c>
       <c r="I9" s="14">
@@ -9409,8 +9415,8 @@
       <c r="K9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="25" t="s">
-        <v>458</v>
+      <c r="L9" s="24" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="11">
@@ -9420,31 +9426,31 @@
     </row>
     <row r="12">
       <c r="A12" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>475</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="C12" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="C12" s="21" t="s">
-        <v>16</v>
-      </c>
       <c r="D12" s="15" t="s">
-        <v>455</v>
-      </c>
-      <c r="E12" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>477</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="22">
         <v>44887.0</v>
       </c>
       <c r="K12" s="15" t="s">
         <v>20</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="13">
@@ -9454,26 +9460,26 @@
       <c r="B13" s="15" t="s">
         <v>480</v>
       </c>
-      <c r="C13" s="21" t="s">
-        <v>16</v>
+      <c r="C13" s="26" t="s">
+        <v>476</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>461</v>
-      </c>
-      <c r="E13" s="26" t="s">
+        <v>460</v>
+      </c>
+      <c r="E13" s="25" t="s">
         <v>481</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>482</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="22">
         <v>44888.0</v>
       </c>
       <c r="K13" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="25" t="s">
-        <v>458</v>
+      <c r="L13" s="24" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="14">
@@ -9483,26 +9489,26 @@
       <c r="B14" s="15" t="s">
         <v>484</v>
       </c>
-      <c r="C14" s="21" t="s">
-        <v>16</v>
+      <c r="C14" s="26" t="s">
+        <v>476</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>465</v>
-      </c>
-      <c r="E14" s="26" t="s">
+        <v>464</v>
+      </c>
+      <c r="E14" s="25" t="s">
         <v>485</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="22">
         <v>44888.0</v>
       </c>
       <c r="K14" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="25" t="s">
-        <v>458</v>
+      <c r="L14" s="24" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="15">
@@ -9512,26 +9518,26 @@
       <c r="B15" s="15" t="s">
         <v>488</v>
       </c>
-      <c r="C15" s="21" t="s">
-        <v>16</v>
+      <c r="C15" s="26" t="s">
+        <v>476</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>469</v>
-      </c>
-      <c r="E15" s="26" t="s">
+        <v>468</v>
+      </c>
+      <c r="E15" s="25" t="s">
         <v>489</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>490</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="22">
         <v>44888.0</v>
       </c>
       <c r="K15" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="25" t="s">
-        <v>458</v>
+      <c r="L15" s="24" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="16">
@@ -9541,26 +9547,26 @@
       <c r="B16" s="15" t="s">
         <v>492</v>
       </c>
-      <c r="C16" s="21" t="s">
-        <v>16</v>
+      <c r="C16" s="26" t="s">
+        <v>476</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>473</v>
-      </c>
-      <c r="E16" s="26" t="s">
+        <v>472</v>
+      </c>
+      <c r="E16" s="25" t="s">
         <v>493</v>
       </c>
       <c r="F16" s="15" t="s">
         <v>494</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="22">
         <v>44888.0</v>
       </c>
       <c r="K16" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="25" t="s">
-        <v>458</v>
+      <c r="L16" s="24" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="17">
@@ -9570,19 +9576,19 @@
       <c r="B17" s="15" t="s">
         <v>496</v>
       </c>
-      <c r="C17" s="21" t="s">
-        <v>16</v>
+      <c r="C17" s="26" t="s">
+        <v>476</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>449</v>
-      </c>
-      <c r="E17" s="26" t="s">
+        <v>448</v>
+      </c>
+      <c r="E17" s="25" t="s">
         <v>497</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>498</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="22">
         <v>45273.0</v>
       </c>
       <c r="K17" s="15" t="s">
@@ -9740,7 +9746,7 @@
         <v>38</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D3" s="12">
         <v>43789.0</v>
@@ -9762,7 +9768,7 @@
       <c r="K3" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="26" t="s">
+      <c r="L3" s="25" t="s">
         <v>43</v>
       </c>
       <c r="M3" s="41"/>
@@ -9786,7 +9792,7 @@
         <v>45</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -9806,7 +9812,7 @@
       <c r="K4" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="L4" s="26" t="s">
+      <c r="L4" s="25" t="s">
         <v>43</v>
       </c>
       <c r="M4" s="41"/>
@@ -9830,7 +9836,7 @@
         <v>49</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -9850,7 +9856,7 @@
       <c r="K5" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="L5" s="26" t="s">
+      <c r="L5" s="25" t="s">
         <v>43</v>
       </c>
       <c r="M5" s="41"/>
@@ -9874,7 +9880,7 @@
         <v>53</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -9894,7 +9900,7 @@
       <c r="K6" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="26" t="s">
+      <c r="L6" s="25" t="s">
         <v>43</v>
       </c>
       <c r="M6" s="41"/>
@@ -9918,7 +9924,7 @@
         <v>57</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -9938,7 +9944,7 @@
       <c r="K7" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="L7" s="26" t="s">
+      <c r="L7" s="25" t="s">
         <v>43</v>
       </c>
       <c r="M7" s="41"/>
@@ -9962,7 +9968,7 @@
         <v>61</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -9982,7 +9988,7 @@
       <c r="K8" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="L8" s="26" t="s">
+      <c r="L8" s="25" t="s">
         <v>43</v>
       </c>
       <c r="M8" s="41"/>
@@ -10006,7 +10012,7 @@
         <v>65</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -10026,7 +10032,7 @@
       <c r="K9" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="L9" s="26" t="s">
+      <c r="L9" s="25" t="s">
         <v>43</v>
       </c>
       <c r="M9" s="41"/>
@@ -10050,7 +10056,7 @@
         <v>69</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
@@ -10070,7 +10076,7 @@
       <c r="K10" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="L10" s="26" t="s">
+      <c r="L10" s="25" t="s">
         <v>43</v>
       </c>
       <c r="M10" s="41"/>
@@ -10094,7 +10100,7 @@
         <v>73</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -10114,7 +10120,7 @@
       <c r="K11" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="L11" s="26" t="s">
+      <c r="L11" s="25" t="s">
         <v>43</v>
       </c>
       <c r="M11" s="41"/>
@@ -10138,7 +10144,7 @@
         <v>77</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -10158,7 +10164,7 @@
       <c r="K12" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="L12" s="26" t="s">
+      <c r="L12" s="25" t="s">
         <v>43</v>
       </c>
       <c r="M12" s="41"/>
@@ -10182,7 +10188,7 @@
         <v>81</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
@@ -10202,7 +10208,7 @@
       <c r="K13" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="L13" s="26" t="s">
+      <c r="L13" s="25" t="s">
         <v>43</v>
       </c>
       <c r="M13" s="41"/>
@@ -10226,7 +10232,7 @@
         <v>85</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -10246,7 +10252,7 @@
       <c r="K14" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="L14" s="26" t="s">
+      <c r="L14" s="25" t="s">
         <v>43</v>
       </c>
       <c r="M14" s="41"/>
@@ -10270,7 +10276,7 @@
         <v>89</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
@@ -10290,7 +10296,7 @@
       <c r="K15" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="L15" s="26" t="s">
+      <c r="L15" s="25" t="s">
         <v>43</v>
       </c>
       <c r="M15" s="41"/>
@@ -10314,7 +10320,7 @@
         <v>93</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
@@ -10334,7 +10340,7 @@
       <c r="K16" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="L16" s="26" t="s">
+      <c r="L16" s="25" t="s">
         <v>43</v>
       </c>
       <c r="M16" s="41"/>
@@ -10358,7 +10364,7 @@
         <v>97</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
@@ -10378,7 +10384,7 @@
       <c r="K17" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="L17" s="26" t="s">
+      <c r="L17" s="25" t="s">
         <v>43</v>
       </c>
       <c r="M17" s="41"/>
@@ -10402,7 +10408,7 @@
         <v>101</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
@@ -10422,7 +10428,7 @@
       <c r="K18" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="L18" s="26" t="s">
+      <c r="L18" s="25" t="s">
         <v>43</v>
       </c>
       <c r="M18" s="41"/>
@@ -10446,7 +10452,7 @@
         <v>105</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
@@ -10466,7 +10472,7 @@
       <c r="K19" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="L19" s="26" t="s">
+      <c r="L19" s="25" t="s">
         <v>43</v>
       </c>
       <c r="M19" s="41"/>
@@ -10515,7 +10521,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="12">
@@ -10523,10 +10529,10 @@
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H22" s="14">
         <v>44650.0</v>
@@ -10536,9 +10542,9 @@
         <v>20</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="L22" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="L22" s="25" t="s">
         <v>43</v>
       </c>
       <c r="M22" s="41"/>
@@ -10563,7 +10569,7 @@
       <c r="D23" s="12"/>
       <c r="E23" s="11"/>
       <c r="F23" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="14"/>
@@ -10576,9 +10582,9 @@
         <v>523</v>
       </c>
       <c r="B24" s="15"/>
-      <c r="D24" s="23"/>
+      <c r="D24" s="22"/>
       <c r="F24" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="14"/>
@@ -10591,9 +10597,9 @@
         <v>524</v>
       </c>
       <c r="B25" s="15"/>
-      <c r="D25" s="23"/>
+      <c r="D25" s="22"/>
       <c r="F25" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="14"/>
@@ -10606,9 +10612,9 @@
         <v>525</v>
       </c>
       <c r="B26" s="15"/>
-      <c r="D26" s="23"/>
+      <c r="D26" s="22"/>
       <c r="F26" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="14"/>
@@ -10621,9 +10627,9 @@
         <v>526</v>
       </c>
       <c r="B27" s="15"/>
-      <c r="D27" s="23"/>
+      <c r="D27" s="22"/>
       <c r="F27" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G27" s="15"/>
       <c r="H27" s="14"/>
@@ -10634,7 +10640,7 @@
     <row r="28">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
-      <c r="D28" s="23"/>
+      <c r="D28" s="22"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="14"/>
@@ -10647,7 +10653,7 @@
         <v>527</v>
       </c>
       <c r="B29" s="15"/>
-      <c r="D29" s="23"/>
+      <c r="D29" s="22"/>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="14"/>
@@ -10660,30 +10666,30 @@
         <v>528</v>
       </c>
       <c r="B30" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="D30" s="22">
+        <v>43245.0</v>
+      </c>
+      <c r="F30" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="D30" s="23">
-        <v>43245.0</v>
-      </c>
-      <c r="F30" s="15" t="s">
+      <c r="G30" s="25" t="s">
         <v>356</v>
-      </c>
-      <c r="G30" s="26" t="s">
-        <v>357</v>
       </c>
       <c r="H30" s="14">
         <v>44762.0</v>
       </c>
-      <c r="I30" s="23">
+      <c r="I30" s="22">
         <v>44848.0</v>
       </c>
       <c r="J30" s="15" t="s">
         <v>529</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="L30" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="L30" s="25" t="s">
         <v>43</v>
       </c>
     </row>
@@ -10692,30 +10698,30 @@
         <v>530</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="D31" s="23">
+        <v>252</v>
+      </c>
+      <c r="D31" s="22">
         <v>43524.0</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>356</v>
-      </c>
-      <c r="G31" s="26" t="s">
-        <v>358</v>
+        <v>355</v>
+      </c>
+      <c r="G31" s="25" t="s">
+        <v>357</v>
       </c>
       <c r="H31" s="14">
         <v>44762.0</v>
       </c>
-      <c r="I31" s="23">
+      <c r="I31" s="22">
         <v>44848.0</v>
       </c>
       <c r="J31" s="15" t="s">
         <v>529</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="L31" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="L31" s="25" t="s">
         <v>43</v>
       </c>
     </row>
@@ -10739,7 +10745,7 @@
         <v>532</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="12">
@@ -10747,10 +10753,10 @@
       </c>
       <c r="E34" s="11"/>
       <c r="F34" s="29" t="s">
+        <v>448</v>
+      </c>
+      <c r="G34" s="28" t="s">
         <v>449</v>
-      </c>
-      <c r="G34" s="28" t="s">
-        <v>450</v>
       </c>
       <c r="H34" s="14">
         <v>44650.0</v>
@@ -10760,9 +10766,9 @@
         <v>20</v>
       </c>
       <c r="K34" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="L34" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="L34" s="25" t="s">
         <v>43</v>
       </c>
       <c r="M34" s="41"/>
@@ -10783,7 +10789,7 @@
         <v>533</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="12">
@@ -10791,10 +10797,10 @@
       </c>
       <c r="E35" s="11"/>
       <c r="F35" s="29" t="s">
+        <v>448</v>
+      </c>
+      <c r="G35" s="28" t="s">
         <v>449</v>
-      </c>
-      <c r="G35" s="28" t="s">
-        <v>450</v>
       </c>
       <c r="H35" s="14">
         <v>44650.0</v>
@@ -10804,9 +10810,9 @@
         <v>20</v>
       </c>
       <c r="K35" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="L35" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="L35" s="25" t="s">
         <v>43</v>
       </c>
       <c r="M35" s="41"/>
@@ -10827,20 +10833,20 @@
         <v>534</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C36" s="41"/>
       <c r="D36" s="46" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E36" s="41"/>
       <c r="F36" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="G36" s="25" t="s">
         <v>455</v>
       </c>
-      <c r="G36" s="26" t="s">
-        <v>456</v>
-      </c>
-      <c r="H36" s="23">
+      <c r="H36" s="22">
         <v>44887.0</v>
       </c>
       <c r="I36" s="41"/>
@@ -10848,7 +10854,7 @@
         <v>20</v>
       </c>
       <c r="K36" s="15" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L36" s="41"/>
       <c r="M36" s="41"/>
@@ -10869,20 +10875,20 @@
         <v>535</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C37" s="41"/>
-      <c r="D37" s="23">
+      <c r="D37" s="22">
         <v>44927.0</v>
       </c>
       <c r="E37" s="41"/>
       <c r="F37" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="G37" s="21" t="s">
         <v>461</v>
       </c>
-      <c r="G37" s="22" t="s">
-        <v>462</v>
-      </c>
-      <c r="H37" s="23">
+      <c r="H37" s="22">
         <v>44888.0</v>
       </c>
       <c r="I37" s="41"/>
@@ -10890,7 +10896,7 @@
         <v>20</v>
       </c>
       <c r="K37" s="15" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L37" s="41"/>
       <c r="M37" s="41"/>
@@ -10911,18 +10917,18 @@
         <v>536</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C38" s="41"/>
-      <c r="D38" s="23">
+      <c r="D38" s="22">
         <v>45298.0</v>
       </c>
       <c r="E38" s="41"/>
       <c r="F38" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="G38" s="21" t="s">
         <v>465</v>
-      </c>
-      <c r="G38" s="22" t="s">
-        <v>466</v>
       </c>
       <c r="H38" s="14">
         <v>44888.0</v>
@@ -10931,8 +10937,8 @@
       <c r="J38" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="K38" s="25" t="s">
-        <v>458</v>
+      <c r="K38" s="24" t="s">
+        <v>457</v>
       </c>
       <c r="L38" s="41"/>
       <c r="M38" s="41"/>
@@ -10953,18 +10959,18 @@
         <v>537</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C39" s="41"/>
-      <c r="D39" s="23">
+      <c r="D39" s="22">
         <v>44933.0</v>
       </c>
       <c r="E39" s="41"/>
       <c r="F39" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="G39" s="25" t="s">
         <v>469</v>
-      </c>
-      <c r="G39" s="26" t="s">
-        <v>470</v>
       </c>
       <c r="H39" s="14">
         <v>44888.0</v>
@@ -10973,8 +10979,8 @@
       <c r="J39" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="K39" s="25" t="s">
-        <v>458</v>
+      <c r="K39" s="24" t="s">
+        <v>457</v>
       </c>
       <c r="L39" s="41"/>
       <c r="M39" s="41"/>
@@ -10995,18 +11001,18 @@
         <v>538</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C40" s="41"/>
-      <c r="D40" s="23">
+      <c r="D40" s="22">
         <v>44206.0</v>
       </c>
       <c r="E40" s="41"/>
       <c r="F40" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="G40" s="25" t="s">
         <v>473</v>
-      </c>
-      <c r="G40" s="26" t="s">
-        <v>474</v>
       </c>
       <c r="H40" s="14">
         <v>44888.0</v>
@@ -11015,8 +11021,8 @@
       <c r="J40" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="K40" s="25" t="s">
-        <v>458</v>
+      <c r="K40" s="24" t="s">
+        <v>457</v>
       </c>
       <c r="L40" s="41"/>
       <c r="M40" s="41"/>
@@ -11038,15 +11044,15 @@
       </c>
       <c r="B43" s="31"/>
       <c r="C43" s="38"/>
-      <c r="D43" s="21"/>
+      <c r="D43" s="26"/>
       <c r="E43" s="31"/>
       <c r="F43" s="31"/>
       <c r="G43" s="31"/>
       <c r="H43" s="33"/>
       <c r="I43" s="34"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="24"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
       <c r="M43" s="34"/>
       <c r="N43" s="34"/>
       <c r="O43" s="34"/>
@@ -11069,13 +11075,13 @@
         <v>540</v>
       </c>
       <c r="C44" s="38"/>
-      <c r="D44" s="21" t="s">
-        <v>16</v>
+      <c r="D44" s="26" t="s">
+        <v>476</v>
       </c>
       <c r="E44" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="F44" s="21" t="s">
+      <c r="F44" s="26" t="s">
         <v>19</v>
       </c>
       <c r="G44" s="32" t="s">
@@ -11085,11 +11091,11 @@
         <v>44650.0</v>
       </c>
       <c r="I44" s="34"/>
-      <c r="J44" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="K44" s="24" t="s">
-        <v>113</v>
+      <c r="J44" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K44" s="23" t="s">
+        <v>112</v>
       </c>
       <c r="L44" s="35" t="s">
         <v>43</v>
@@ -11116,13 +11122,13 @@
         <v>542</v>
       </c>
       <c r="C45" s="38"/>
-      <c r="D45" s="21" t="s">
-        <v>16</v>
+      <c r="D45" s="26" t="s">
+        <v>476</v>
       </c>
       <c r="E45" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="21" t="s">
+      <c r="F45" s="26" t="s">
         <v>19</v>
       </c>
       <c r="G45" s="32" t="s">
@@ -11132,11 +11138,11 @@
         <v>44650.0</v>
       </c>
       <c r="I45" s="34"/>
-      <c r="J45" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="K45" s="24" t="s">
-        <v>113</v>
+      <c r="J45" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K45" s="23" t="s">
+        <v>112</v>
       </c>
       <c r="L45" s="35" t="s">
         <v>43</v>
@@ -11163,8 +11169,8 @@
         <v>543</v>
       </c>
       <c r="C46" s="38"/>
-      <c r="D46" s="21" t="s">
-        <v>16</v>
+      <c r="D46" s="26" t="s">
+        <v>476</v>
       </c>
       <c r="E46" s="31" t="s">
         <v>27</v>
@@ -11179,11 +11185,11 @@
         <v>44650.0</v>
       </c>
       <c r="I46" s="34"/>
-      <c r="J46" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="K46" s="24" t="s">
-        <v>113</v>
+      <c r="J46" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K46" s="23" t="s">
+        <v>112</v>
       </c>
       <c r="L46" s="35" t="s">
         <v>43</v>
@@ -11206,12 +11212,12 @@
       <c r="A47" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="26" t="s">
         <v>544</v>
       </c>
       <c r="C47" s="38"/>
-      <c r="D47" s="21" t="s">
-        <v>16</v>
+      <c r="D47" s="26" t="s">
+        <v>476</v>
       </c>
       <c r="E47" s="31" t="s">
         <v>35</v>
@@ -11226,11 +11232,11 @@
         <v>44650.0</v>
       </c>
       <c r="I47" s="34"/>
-      <c r="J47" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="K47" s="24" t="s">
-        <v>113</v>
+      <c r="J47" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K47" s="23" t="s">
+        <v>112</v>
       </c>
       <c r="L47" s="35" t="s">
         <v>43</v>
@@ -11250,20 +11256,20 @@
       <c r="Y47" s="34"/>
     </row>
     <row r="48">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="26" t="s">
         <v>546</v>
       </c>
       <c r="C48" s="38"/>
-      <c r="D48" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E48" s="21" t="s">
+      <c r="D48" s="26" t="s">
+        <v>476</v>
+      </c>
+      <c r="E48" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="F48" s="21" t="s">
+      <c r="F48" s="26" t="s">
         <v>19</v>
       </c>
       <c r="G48" s="49" t="s">
@@ -11273,13 +11279,13 @@
         <v>45093.0</v>
       </c>
       <c r="I48" s="34"/>
-      <c r="J48" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="K48" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="L48" s="24"/>
+      <c r="J48" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K48" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="L48" s="23"/>
       <c r="M48" s="34"/>
       <c r="N48" s="34"/>
       <c r="O48" s="34"/>
@@ -11296,33 +11302,33 @@
     </row>
     <row r="49">
       <c r="A49" s="31" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B49" s="31" t="s">
         <v>547</v>
       </c>
       <c r="C49" s="50"/>
-      <c r="D49" s="21" t="s">
-        <v>16</v>
+      <c r="D49" s="26" t="s">
+        <v>476</v>
       </c>
       <c r="E49" s="31" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F49" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G49" s="32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H49" s="33">
         <v>44650.0</v>
       </c>
       <c r="I49" s="34"/>
-      <c r="J49" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="K49" s="24" t="s">
-        <v>113</v>
+      <c r="J49" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K49" s="23" t="s">
+        <v>112</v>
       </c>
       <c r="L49" s="35" t="s">
         <v>43</v>
@@ -11343,33 +11349,33 @@
     </row>
     <row r="50">
       <c r="A50" s="31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B50" s="31" t="s">
         <v>548</v>
       </c>
       <c r="C50" s="50"/>
-      <c r="D50" s="21" t="s">
-        <v>16</v>
+      <c r="D50" s="26" t="s">
+        <v>476</v>
       </c>
       <c r="E50" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F50" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G50" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H50" s="33">
         <v>44650.0</v>
       </c>
       <c r="I50" s="34"/>
-      <c r="J50" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="K50" s="24" t="s">
-        <v>113</v>
+      <c r="J50" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K50" s="23" t="s">
+        <v>112</v>
       </c>
       <c r="L50" s="35" t="s">
         <v>43</v>
@@ -11390,33 +11396,33 @@
     </row>
     <row r="51">
       <c r="A51" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B51" s="31" t="s">
         <v>549</v>
       </c>
       <c r="C51" s="50"/>
-      <c r="D51" s="21" t="s">
-        <v>16</v>
+      <c r="D51" s="26" t="s">
+        <v>476</v>
       </c>
       <c r="E51" s="31" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F51" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G51" s="32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H51" s="33">
         <v>44650.0</v>
       </c>
       <c r="I51" s="34"/>
-      <c r="J51" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="K51" s="24" t="s">
-        <v>113</v>
+      <c r="J51" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K51" s="23" t="s">
+        <v>112</v>
       </c>
       <c r="L51" s="35" t="s">
         <v>43</v>
@@ -11437,17 +11443,17 @@
     </row>
     <row r="52">
       <c r="A52" s="31" t="s">
+        <v>341</v>
+      </c>
+      <c r="B52" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="B52" s="31" t="s">
+      <c r="C52" s="50"/>
+      <c r="D52" s="26" t="s">
+        <v>476</v>
+      </c>
+      <c r="E52" s="31" t="s">
         <v>343</v>
-      </c>
-      <c r="C52" s="50"/>
-      <c r="D52" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E52" s="31" t="s">
-        <v>344</v>
       </c>
       <c r="F52" s="31" t="s">
         <v>19</v>
@@ -11459,11 +11465,11 @@
         <v>44650.0</v>
       </c>
       <c r="I52" s="34"/>
-      <c r="J52" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="K52" s="24" t="s">
-        <v>113</v>
+      <c r="J52" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K52" s="23" t="s">
+        <v>112</v>
       </c>
       <c r="L52" s="35" t="s">
         <v>43</v>
@@ -11484,17 +11490,17 @@
     </row>
     <row r="53">
       <c r="A53" s="31" t="s">
+        <v>349</v>
+      </c>
+      <c r="B53" s="31" t="s">
         <v>350</v>
       </c>
-      <c r="B53" s="31" t="s">
+      <c r="C53" s="50"/>
+      <c r="D53" s="26" t="s">
+        <v>476</v>
+      </c>
+      <c r="E53" s="31" t="s">
         <v>351</v>
-      </c>
-      <c r="C53" s="50"/>
-      <c r="D53" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E53" s="31" t="s">
-        <v>352</v>
       </c>
       <c r="F53" s="31" t="s">
         <v>19</v>
@@ -11506,11 +11512,11 @@
         <v>44650.0</v>
       </c>
       <c r="I53" s="34"/>
-      <c r="J53" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="K53" s="24" t="s">
-        <v>113</v>
+      <c r="J53" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K53" s="23" t="s">
+        <v>112</v>
       </c>
       <c r="L53" s="35" t="s">
         <v>43</v>
@@ -11531,17 +11537,17 @@
     </row>
     <row r="54">
       <c r="A54" s="31" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B54" s="31" t="s">
         <v>552</v>
       </c>
       <c r="C54" s="50"/>
-      <c r="D54" s="21" t="s">
-        <v>16</v>
+      <c r="D54" s="26" t="s">
+        <v>476</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F54" s="31" t="s">
         <v>19</v>
@@ -11553,11 +11559,11 @@
         <v>44650.0</v>
       </c>
       <c r="I54" s="34"/>
-      <c r="J54" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="K54" s="24" t="s">
-        <v>113</v>
+      <c r="J54" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K54" s="23" t="s">
+        <v>112</v>
       </c>
       <c r="L54" s="35" t="s">
         <v>43</v>
@@ -11578,17 +11584,17 @@
     </row>
     <row r="55">
       <c r="A55" s="31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B55" s="31" t="s">
         <v>554</v>
       </c>
       <c r="C55" s="50"/>
-      <c r="D55" s="21" t="s">
-        <v>16</v>
+      <c r="D55" s="26" t="s">
+        <v>476</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F55" s="31" t="s">
         <v>19</v>
@@ -11600,11 +11606,11 @@
         <v>44650.0</v>
       </c>
       <c r="I55" s="34"/>
-      <c r="J55" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="K55" s="24" t="s">
-        <v>113</v>
+      <c r="J55" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K55" s="23" t="s">
+        <v>112</v>
       </c>
       <c r="L55" s="35" t="s">
         <v>43</v>
@@ -11625,17 +11631,17 @@
     </row>
     <row r="56">
       <c r="A56" s="31" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B56" s="31" t="s">
         <v>556</v>
       </c>
       <c r="C56" s="50"/>
-      <c r="D56" s="21" t="s">
-        <v>16</v>
+      <c r="D56" s="26" t="s">
+        <v>476</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F56" s="31" t="s">
         <v>19</v>
@@ -11647,11 +11653,11 @@
         <v>44650.0</v>
       </c>
       <c r="I56" s="34"/>
-      <c r="J56" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="K56" s="24" t="s">
-        <v>113</v>
+      <c r="J56" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K56" s="23" t="s">
+        <v>112</v>
       </c>
       <c r="L56" s="35" t="s">
         <v>43</v>
@@ -11672,17 +11678,17 @@
     </row>
     <row r="57">
       <c r="A57" s="31" t="s">
+        <v>379</v>
+      </c>
+      <c r="B57" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="B57" s="31" t="s">
-        <v>381</v>
-      </c>
       <c r="C57" s="50"/>
-      <c r="D57" s="21" t="s">
-        <v>16</v>
+      <c r="D57" s="26" t="s">
+        <v>476</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F57" s="31" t="s">
         <v>19</v>
@@ -11694,11 +11700,11 @@
         <v>44650.0</v>
       </c>
       <c r="I57" s="34"/>
-      <c r="J57" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="K57" s="24" t="s">
-        <v>113</v>
+      <c r="J57" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K57" s="23" t="s">
+        <v>112</v>
       </c>
       <c r="L57" s="35" t="s">
         <v>43</v>
@@ -11718,20 +11724,20 @@
       <c r="Y57" s="34"/>
     </row>
     <row r="58">
-      <c r="A58" s="21" t="s">
+      <c r="A58" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>559</v>
+      </c>
+      <c r="C58" s="50"/>
+      <c r="D58" s="26" t="s">
+        <v>476</v>
+      </c>
+      <c r="E58" s="26" t="s">
         <v>391</v>
       </c>
-      <c r="B58" s="21" t="s">
-        <v>559</v>
-      </c>
-      <c r="C58" s="50"/>
-      <c r="D58" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E58" s="21" t="s">
-        <v>392</v>
-      </c>
-      <c r="F58" s="21" t="s">
+      <c r="F58" s="26" t="s">
         <v>19</v>
       </c>
       <c r="G58" s="51" t="s">
@@ -11741,11 +11747,11 @@
         <v>45093.0</v>
       </c>
       <c r="I58" s="34"/>
-      <c r="J58" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="K58" s="24"/>
-      <c r="L58" s="24"/>
+      <c r="J58" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K58" s="23"/>
+      <c r="L58" s="23"/>
       <c r="M58" s="34"/>
       <c r="N58" s="34"/>
       <c r="O58" s="34"/>
@@ -11762,17 +11768,17 @@
     </row>
     <row r="59">
       <c r="A59" s="31" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B59" s="31" t="s">
         <v>561</v>
       </c>
       <c r="C59" s="50"/>
-      <c r="D59" s="21" t="s">
-        <v>16</v>
+      <c r="D59" s="26" t="s">
+        <v>476</v>
       </c>
       <c r="E59" s="31" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F59" s="31" t="s">
         <v>19</v>
@@ -11784,11 +11790,11 @@
         <v>44650.0</v>
       </c>
       <c r="I59" s="34"/>
-      <c r="J59" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="K59" s="24" t="s">
-        <v>113</v>
+      <c r="J59" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K59" s="23" t="s">
+        <v>112</v>
       </c>
       <c r="L59" s="35" t="s">
         <v>43</v>
@@ -11808,34 +11814,34 @@
       <c r="Y59" s="34"/>
     </row>
     <row r="60">
-      <c r="A60" s="21" t="s">
+      <c r="A60" s="26" t="s">
         <v>563</v>
       </c>
-      <c r="B60" s="21" t="s">
+      <c r="B60" s="26" t="s">
         <v>564</v>
       </c>
       <c r="C60" s="50"/>
-      <c r="D60" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E60" s="21" t="s">
+      <c r="D60" s="26" t="s">
+        <v>476</v>
+      </c>
+      <c r="E60" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="F60" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G60" s="49" t="s">
         <v>399</v>
-      </c>
-      <c r="F60" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G60" s="49" t="s">
-        <v>400</v>
       </c>
       <c r="H60" s="33">
         <v>45093.0</v>
       </c>
       <c r="I60" s="34"/>
-      <c r="J60" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="K60" s="24"/>
-      <c r="L60" s="24"/>
+      <c r="J60" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K60" s="23"/>
+      <c r="L60" s="23"/>
       <c r="M60" s="34"/>
       <c r="N60" s="34"/>
       <c r="O60" s="34"/>
@@ -11852,17 +11858,17 @@
     </row>
     <row r="61">
       <c r="A61" s="31" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B61" s="31" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C61" s="50"/>
-      <c r="D61" s="21" t="s">
-        <v>16</v>
+      <c r="D61" s="26" t="s">
+        <v>476</v>
       </c>
       <c r="E61" s="31" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F61" s="31" t="s">
         <v>19</v>
@@ -11874,11 +11880,11 @@
         <v>44650.0</v>
       </c>
       <c r="I61" s="34"/>
-      <c r="J61" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="K61" s="24" t="s">
-        <v>113</v>
+      <c r="J61" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K61" s="23" t="s">
+        <v>112</v>
       </c>
       <c r="L61" s="35" t="s">
         <v>43</v>
@@ -11899,17 +11905,17 @@
     </row>
     <row r="62">
       <c r="A62" s="31" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B62" s="31" t="s">
         <v>566</v>
       </c>
       <c r="C62" s="50"/>
-      <c r="D62" s="21" t="s">
-        <v>16</v>
+      <c r="D62" s="26" t="s">
+        <v>476</v>
       </c>
       <c r="E62" s="31" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F62" s="31" t="s">
         <v>19</v>
@@ -11921,11 +11927,11 @@
         <v>44650.0</v>
       </c>
       <c r="I62" s="34"/>
-      <c r="J62" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="K62" s="24" t="s">
-        <v>113</v>
+      <c r="J62" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K62" s="23" t="s">
+        <v>112</v>
       </c>
       <c r="L62" s="35" t="s">
         <v>43</v>
@@ -11946,33 +11952,33 @@
     </row>
     <row r="63">
       <c r="A63" s="31" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B63" s="31" t="s">
         <v>568</v>
       </c>
       <c r="C63" s="50"/>
-      <c r="D63" s="21" t="s">
-        <v>16</v>
+      <c r="D63" s="26" t="s">
+        <v>476</v>
       </c>
       <c r="E63" s="31" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F63" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G63" s="32" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H63" s="33">
         <v>44650.0</v>
       </c>
       <c r="I63" s="34"/>
-      <c r="J63" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="K63" s="24" t="s">
-        <v>113</v>
+      <c r="J63" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K63" s="23" t="s">
+        <v>112</v>
       </c>
       <c r="L63" s="35" t="s">
         <v>43</v>
@@ -11993,17 +11999,17 @@
     </row>
     <row r="64">
       <c r="A64" s="31" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B64" s="31" t="s">
         <v>569</v>
       </c>
       <c r="C64" s="50"/>
-      <c r="D64" s="21" t="s">
-        <v>16</v>
+      <c r="D64" s="26" t="s">
+        <v>476</v>
       </c>
       <c r="E64" s="31" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F64" s="31" t="s">
         <v>19</v>
@@ -12015,11 +12021,11 @@
         <v>44650.0</v>
       </c>
       <c r="I64" s="34"/>
-      <c r="J64" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="K64" s="24" t="s">
-        <v>113</v>
+      <c r="J64" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K64" s="23" t="s">
+        <v>112</v>
       </c>
       <c r="L64" s="35" t="s">
         <v>43</v>
@@ -12040,17 +12046,17 @@
     </row>
     <row r="65">
       <c r="A65" s="31" t="s">
-        <v>417</v>
-      </c>
-      <c r="B65" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="B65" s="26" t="s">
         <v>571</v>
       </c>
       <c r="C65" s="50"/>
-      <c r="D65" s="21" t="s">
-        <v>16</v>
+      <c r="D65" s="26" t="s">
+        <v>476</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F65" s="31" t="s">
         <v>19</v>
@@ -12062,11 +12068,11 @@
         <v>44650.0</v>
       </c>
       <c r="I65" s="34"/>
-      <c r="J65" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="K65" s="24" t="s">
-        <v>113</v>
+      <c r="J65" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K65" s="23" t="s">
+        <v>112</v>
       </c>
       <c r="L65" s="35" t="s">
         <v>43</v>
@@ -12086,20 +12092,20 @@
       <c r="Y65" s="34"/>
     </row>
     <row r="66">
-      <c r="A66" s="21" t="s">
+      <c r="A66" s="26" t="s">
         <v>573</v>
       </c>
-      <c r="B66" s="21" t="s">
+      <c r="B66" s="26" t="s">
         <v>574</v>
       </c>
       <c r="C66" s="50"/>
-      <c r="D66" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E66" s="21" t="s">
-        <v>422</v>
-      </c>
-      <c r="F66" s="21" t="s">
+      <c r="D66" s="26" t="s">
+        <v>476</v>
+      </c>
+      <c r="E66" s="26" t="s">
+        <v>421</v>
+      </c>
+      <c r="F66" s="26" t="s">
         <v>19</v>
       </c>
       <c r="G66" s="49" t="s">
@@ -12109,11 +12115,11 @@
         <v>45093.0</v>
       </c>
       <c r="I66" s="34"/>
-      <c r="J66" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="K66" s="24"/>
-      <c r="L66" s="24"/>
+      <c r="J66" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K66" s="23"/>
+      <c r="L66" s="23"/>
       <c r="M66" s="34"/>
       <c r="N66" s="34"/>
       <c r="O66" s="34"/>
@@ -12130,33 +12136,33 @@
     </row>
     <row r="67">
       <c r="A67" s="31" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B67" s="31" t="s">
         <v>576</v>
       </c>
       <c r="C67" s="50"/>
-      <c r="D67" s="21" t="s">
-        <v>16</v>
+      <c r="D67" s="26" t="s">
+        <v>476</v>
       </c>
       <c r="E67" s="31" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F67" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G67" s="32" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H67" s="33">
         <v>44650.0</v>
       </c>
       <c r="I67" s="34"/>
-      <c r="J67" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="K67" s="24" t="s">
-        <v>113</v>
+      <c r="J67" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K67" s="23" t="s">
+        <v>112</v>
       </c>
       <c r="L67" s="35" t="s">
         <v>43</v>
@@ -12177,17 +12183,17 @@
     </row>
     <row r="68">
       <c r="A68" s="31" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B68" s="31" t="s">
         <v>577</v>
       </c>
       <c r="C68" s="50"/>
-      <c r="D68" s="21" t="s">
-        <v>16</v>
+      <c r="D68" s="26" t="s">
+        <v>476</v>
       </c>
       <c r="E68" s="31" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F68" s="31" t="s">
         <v>19</v>
@@ -12199,11 +12205,11 @@
         <v>44650.0</v>
       </c>
       <c r="I68" s="34"/>
-      <c r="J68" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="K68" s="24" t="s">
-        <v>113</v>
+      <c r="J68" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K68" s="23" t="s">
+        <v>112</v>
       </c>
       <c r="L68" s="35" t="s">
         <v>43</v>
@@ -12224,33 +12230,33 @@
     </row>
     <row r="69">
       <c r="A69" s="31" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B69" s="31" t="s">
         <v>579</v>
       </c>
       <c r="C69" s="50"/>
-      <c r="D69" s="21" t="s">
-        <v>16</v>
+      <c r="D69" s="26" t="s">
+        <v>476</v>
       </c>
       <c r="E69" s="31" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F69" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G69" s="32" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H69" s="33">
         <v>44650.0</v>
       </c>
       <c r="I69" s="34"/>
-      <c r="J69" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="K69" s="24" t="s">
-        <v>113</v>
+      <c r="J69" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K69" s="23" t="s">
+        <v>112</v>
       </c>
       <c r="L69" s="35" t="s">
         <v>43</v>
@@ -12271,33 +12277,33 @@
     </row>
     <row r="70">
       <c r="A70" s="31" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B70" s="31" t="s">
         <v>580</v>
       </c>
       <c r="C70" s="50"/>
-      <c r="D70" s="21" t="s">
-        <v>16</v>
+      <c r="D70" s="26" t="s">
+        <v>476</v>
       </c>
       <c r="E70" s="31" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F70" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G70" s="32" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H70" s="33">
         <v>44650.0</v>
       </c>
       <c r="I70" s="34"/>
-      <c r="J70" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="K70" s="24" t="s">
-        <v>113</v>
+      <c r="J70" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K70" s="23" t="s">
+        <v>112</v>
       </c>
       <c r="L70" s="35" t="s">
         <v>43</v>
@@ -12318,33 +12324,33 @@
     </row>
     <row r="71">
       <c r="A71" s="31" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B71" s="31" t="s">
         <v>581</v>
       </c>
       <c r="C71" s="50"/>
-      <c r="D71" s="21" t="s">
-        <v>16</v>
+      <c r="D71" s="26" t="s">
+        <v>476</v>
       </c>
       <c r="E71" s="31" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F71" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G71" s="32" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H71" s="33">
         <v>44650.0</v>
       </c>
       <c r="I71" s="34"/>
-      <c r="J71" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="K71" s="24" t="s">
-        <v>113</v>
+      <c r="J71" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K71" s="23" t="s">
+        <v>112</v>
       </c>
       <c r="L71" s="35" t="s">
         <v>43</v>
@@ -12365,33 +12371,33 @@
     </row>
     <row r="72">
       <c r="A72" s="31" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B72" s="31" t="s">
         <v>582</v>
       </c>
       <c r="C72" s="50"/>
-      <c r="D72" s="21" t="s">
-        <v>16</v>
+      <c r="D72" s="26" t="s">
+        <v>476</v>
       </c>
       <c r="E72" s="31" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F72" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G72" s="32" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H72" s="33">
         <v>44650.0</v>
       </c>
       <c r="I72" s="34"/>
-      <c r="J72" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="K72" s="24" t="s">
-        <v>113</v>
+      <c r="J72" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K72" s="23" t="s">
+        <v>112</v>
       </c>
       <c r="L72" s="35" t="s">
         <v>43</v>
@@ -12695,19 +12701,19 @@
       <c r="B6" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="26" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="21" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="23"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="20">
         <v>45506.0</v>
       </c>
@@ -12716,27 +12722,27 @@
       </c>
     </row>
     <row r="7">
-      <c r="C7" s="24"/>
-      <c r="H7" s="23"/>
-      <c r="K7" s="25"/>
+      <c r="C7" s="23"/>
+      <c r="H7" s="22"/>
+      <c r="K7" s="24"/>
     </row>
     <row r="8">
-      <c r="C8" s="24"/>
-      <c r="H8" s="23"/>
-      <c r="K8" s="25"/>
+      <c r="C8" s="23"/>
+      <c r="H8" s="22"/>
+      <c r="K8" s="24"/>
     </row>
     <row r="9">
-      <c r="C9" s="24"/>
-      <c r="H9" s="23"/>
-      <c r="K9" s="25"/>
+      <c r="C9" s="23"/>
+      <c r="H9" s="22"/>
+      <c r="K9" s="24"/>
     </row>
     <row r="10">
-      <c r="C10" s="24"/>
-      <c r="H10" s="23"/>
-      <c r="K10" s="25"/>
+      <c r="C10" s="23"/>
+      <c r="H10" s="22"/>
+      <c r="K10" s="24"/>
     </row>
     <row r="11">
-      <c r="H11" s="23"/>
+      <c r="H11" s="22"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C6">
@@ -12897,19 +12903,19 @@
       <c r="B6" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="21" t="s">
         <v>36</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="23"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="20">
         <v>45506.0</v>
       </c>
@@ -12918,27 +12924,27 @@
       </c>
     </row>
     <row r="7">
-      <c r="C7" s="24"/>
-      <c r="H7" s="23"/>
-      <c r="K7" s="25"/>
+      <c r="C7" s="23"/>
+      <c r="H7" s="22"/>
+      <c r="K7" s="24"/>
     </row>
     <row r="8">
-      <c r="C8" s="24"/>
-      <c r="H8" s="23"/>
-      <c r="K8" s="25"/>
+      <c r="C8" s="23"/>
+      <c r="H8" s="22"/>
+      <c r="K8" s="24"/>
     </row>
     <row r="9">
-      <c r="C9" s="24"/>
-      <c r="H9" s="23"/>
-      <c r="K9" s="25"/>
+      <c r="C9" s="23"/>
+      <c r="H9" s="22"/>
+      <c r="K9" s="24"/>
     </row>
     <row r="10">
-      <c r="C10" s="24"/>
-      <c r="H10" s="23"/>
-      <c r="K10" s="25"/>
+      <c r="C10" s="23"/>
+      <c r="H10" s="22"/>
+      <c r="K10" s="24"/>
     </row>
     <row r="11">
-      <c r="H11" s="23"/>
+      <c r="H11" s="22"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C6">
@@ -13095,7 +13101,7 @@
       <c r="L3" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="26" t="s">
+      <c r="M3" s="25" t="s">
         <v>43</v>
       </c>
     </row>
@@ -13124,7 +13130,7 @@
       <c r="L4" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="26" t="s">
+      <c r="M4" s="25" t="s">
         <v>43</v>
       </c>
     </row>
@@ -13153,7 +13159,7 @@
       <c r="L5" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="26" t="s">
+      <c r="M5" s="25" t="s">
         <v>43</v>
       </c>
     </row>
@@ -13182,7 +13188,7 @@
       <c r="L6" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="26" t="s">
+      <c r="M6" s="25" t="s">
         <v>43</v>
       </c>
     </row>
@@ -13211,7 +13217,7 @@
       <c r="L7" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="26" t="s">
+      <c r="M7" s="25" t="s">
         <v>43</v>
       </c>
     </row>
@@ -13240,7 +13246,7 @@
       <c r="L8" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="M8" s="26" t="s">
+      <c r="M8" s="25" t="s">
         <v>43</v>
       </c>
     </row>
@@ -13269,7 +13275,7 @@
       <c r="L9" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="26" t="s">
+      <c r="M9" s="25" t="s">
         <v>43</v>
       </c>
     </row>
@@ -13298,7 +13304,7 @@
       <c r="L10" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="M10" s="26" t="s">
+      <c r="M10" s="25" t="s">
         <v>43</v>
       </c>
     </row>
@@ -13327,7 +13333,7 @@
       <c r="L11" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="M11" s="26" t="s">
+      <c r="M11" s="25" t="s">
         <v>43</v>
       </c>
     </row>
@@ -13356,7 +13362,7 @@
       <c r="L12" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="M12" s="26" t="s">
+      <c r="M12" s="25" t="s">
         <v>43</v>
       </c>
     </row>
@@ -13385,7 +13391,7 @@
       <c r="L13" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="M13" s="26" t="s">
+      <c r="M13" s="25" t="s">
         <v>43</v>
       </c>
     </row>
@@ -13414,7 +13420,7 @@
       <c r="L14" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="M14" s="26" t="s">
+      <c r="M14" s="25" t="s">
         <v>43</v>
       </c>
     </row>
@@ -13443,7 +13449,7 @@
       <c r="L15" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="M15" s="26" t="s">
+      <c r="M15" s="25" t="s">
         <v>43</v>
       </c>
     </row>
@@ -13472,7 +13478,7 @@
       <c r="L16" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="M16" s="26" t="s">
+      <c r="M16" s="25" t="s">
         <v>43</v>
       </c>
     </row>
@@ -13501,7 +13507,7 @@
       <c r="L17" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="M17" s="26" t="s">
+      <c r="M17" s="25" t="s">
         <v>43</v>
       </c>
     </row>
@@ -13530,7 +13536,7 @@
       <c r="L18" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="M18" s="26" t="s">
+      <c r="M18" s="25" t="s">
         <v>43</v>
       </c>
     </row>
@@ -13559,7 +13565,7 @@
       <c r="L19" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="M19" s="26" t="s">
+      <c r="M19" s="25" t="s">
         <v>43</v>
       </c>
     </row>
@@ -13576,26 +13582,26 @@
         <v>109</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="D22" s="31" t="s">
         <v>40</v>
       </c>
       <c r="E22" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" s="31" t="s">
         <v>111</v>
-      </c>
-      <c r="F22" s="31" t="s">
-        <v>112</v>
       </c>
       <c r="I22" s="33">
         <v>44650.0</v>
       </c>
       <c r="J22" s="34"/>
-      <c r="K22" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" s="24" t="s">
-        <v>113</v>
+      <c r="K22" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="23" t="s">
+        <v>112</v>
       </c>
       <c r="M22" s="35" t="s">
         <v>43</v>
@@ -13613,31 +13619,31 @@
     </row>
     <row r="23">
       <c r="A23" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="B23" s="31" t="s">
-        <v>115</v>
-      </c>
       <c r="C23" s="15" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="D23" s="31" t="s">
         <v>46</v>
       </c>
       <c r="E23" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" s="31" t="s">
         <v>116</v>
-      </c>
-      <c r="F23" s="31" t="s">
-        <v>117</v>
       </c>
       <c r="I23" s="33">
         <v>44650.0</v>
       </c>
       <c r="J23" s="34"/>
-      <c r="K23" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="L23" s="24" t="s">
+      <c r="K23" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="23" t="s">
         <v>42</v>
       </c>
       <c r="M23" s="35" t="s">
@@ -13656,31 +13662,31 @@
     </row>
     <row r="24">
       <c r="A24" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="B24" s="31" t="s">
-        <v>119</v>
-      </c>
       <c r="C24" s="15" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="D24" s="31" t="s">
         <v>50</v>
       </c>
       <c r="E24" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" s="31" t="s">
         <v>120</v>
-      </c>
-      <c r="F24" s="31" t="s">
-        <v>121</v>
       </c>
       <c r="I24" s="33">
         <v>44650.0</v>
       </c>
       <c r="J24" s="34"/>
-      <c r="K24" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24" s="24" t="s">
+      <c r="K24" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="23" t="s">
         <v>42</v>
       </c>
       <c r="M24" s="35" t="s">
@@ -13699,31 +13705,31 @@
     </row>
     <row r="25">
       <c r="A25" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="B25" s="31" t="s">
-        <v>123</v>
-      </c>
       <c r="C25" s="15" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="D25" s="31" t="s">
         <v>58</v>
       </c>
       <c r="E25" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" s="31" t="s">
         <v>124</v>
-      </c>
-      <c r="F25" s="31" t="s">
-        <v>125</v>
       </c>
       <c r="I25" s="33">
         <v>44650.0</v>
       </c>
       <c r="J25" s="34"/>
-      <c r="K25" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="L25" s="24" t="s">
+      <c r="K25" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="23" t="s">
         <v>42</v>
       </c>
       <c r="M25" s="35" t="s">
@@ -13742,31 +13748,31 @@
     </row>
     <row r="26">
       <c r="A26" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="B26" s="31" t="s">
-        <v>127</v>
-      </c>
       <c r="C26" s="15" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="D26" s="31" t="s">
         <v>58</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F26" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I26" s="33">
         <v>44650.0</v>
       </c>
       <c r="J26" s="34"/>
-      <c r="K26" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="L26" s="24" t="s">
+      <c r="K26" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="23" t="s">
         <v>42</v>
       </c>
       <c r="M26" s="35" t="s">
@@ -13785,31 +13791,31 @@
     </row>
     <row r="27">
       <c r="A27" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="B27" s="31" t="s">
-        <v>130</v>
-      </c>
       <c r="C27" s="15" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="D27" s="31" t="s">
         <v>62</v>
       </c>
       <c r="E27" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="F27" s="31" t="s">
         <v>131</v>
-      </c>
-      <c r="F27" s="31" t="s">
-        <v>132</v>
       </c>
       <c r="I27" s="33">
         <v>44650.0</v>
       </c>
       <c r="J27" s="34"/>
-      <c r="K27" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="L27" s="24" t="s">
+      <c r="K27" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="23" t="s">
         <v>42</v>
       </c>
       <c r="M27" s="35" t="s">
@@ -13828,31 +13834,31 @@
     </row>
     <row r="28">
       <c r="A28" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="B28" s="31" t="s">
-        <v>134</v>
-      </c>
       <c r="C28" s="15" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="D28" s="31" t="s">
         <v>66</v>
       </c>
       <c r="E28" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="F28" s="31" t="s">
         <v>135</v>
-      </c>
-      <c r="F28" s="31" t="s">
-        <v>136</v>
       </c>
       <c r="I28" s="33">
         <v>44650.0</v>
       </c>
       <c r="J28" s="34"/>
-      <c r="K28" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="L28" s="24" t="s">
+      <c r="K28" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="23" t="s">
         <v>42</v>
       </c>
       <c r="M28" s="35" t="s">
@@ -13871,31 +13877,31 @@
     </row>
     <row r="29">
       <c r="A29" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="B29" s="31" t="s">
-        <v>138</v>
-      </c>
       <c r="C29" s="15" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="D29" s="31" t="s">
         <v>70</v>
       </c>
       <c r="E29" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="F29" s="31" t="s">
         <v>139</v>
-      </c>
-      <c r="F29" s="31" t="s">
-        <v>140</v>
       </c>
       <c r="I29" s="33">
         <v>44650.0</v>
       </c>
       <c r="J29" s="34"/>
-      <c r="K29" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" s="24" t="s">
+      <c r="K29" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="23" t="s">
         <v>42</v>
       </c>
       <c r="M29" s="35" t="s">
@@ -13914,31 +13920,31 @@
     </row>
     <row r="30">
       <c r="A30" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="B30" s="31" t="s">
-        <v>142</v>
-      </c>
       <c r="C30" s="15" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="D30" s="31" t="s">
         <v>78</v>
       </c>
       <c r="E30" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="F30" s="31" t="s">
         <v>143</v>
-      </c>
-      <c r="F30" s="31" t="s">
-        <v>144</v>
       </c>
       <c r="I30" s="33">
         <v>44650.0</v>
       </c>
       <c r="J30" s="34"/>
-      <c r="K30" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="L30" s="24" t="s">
+      <c r="K30" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="23" t="s">
         <v>42</v>
       </c>
       <c r="M30" s="35" t="s">
@@ -13957,31 +13963,31 @@
     </row>
     <row r="31">
       <c r="A31" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="B31" s="31" t="s">
-        <v>146</v>
-      </c>
       <c r="C31" s="15" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="D31" s="31" t="s">
         <v>82</v>
       </c>
       <c r="E31" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="F31" s="31" t="s">
         <v>147</v>
-      </c>
-      <c r="F31" s="31" t="s">
-        <v>148</v>
       </c>
       <c r="I31" s="33">
         <v>44650.0</v>
       </c>
       <c r="J31" s="34"/>
-      <c r="K31" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="L31" s="24" t="s">
+      <c r="K31" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="23" t="s">
         <v>42</v>
       </c>
       <c r="M31" s="35" t="s">
@@ -14000,31 +14006,31 @@
     </row>
     <row r="32">
       <c r="A32" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="B32" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="B32" s="31" t="s">
-        <v>150</v>
-      </c>
       <c r="C32" s="15" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="D32" s="31" t="s">
         <v>86</v>
       </c>
       <c r="E32" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="F32" s="31" t="s">
         <v>151</v>
-      </c>
-      <c r="F32" s="31" t="s">
-        <v>152</v>
       </c>
       <c r="I32" s="33">
         <v>44650.0</v>
       </c>
       <c r="J32" s="34"/>
-      <c r="K32" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="L32" s="24" t="s">
+      <c r="K32" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" s="23" t="s">
         <v>42</v>
       </c>
       <c r="M32" s="35" t="s">
@@ -14043,32 +14049,32 @@
     </row>
     <row r="33">
       <c r="A33" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="B33" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="C33" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="C33" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="E33" s="32" t="s">
+      <c r="F33" s="31" t="s">
         <v>155</v>
-      </c>
-      <c r="F33" s="31" t="s">
-        <v>156</v>
       </c>
       <c r="I33" s="33">
         <v>44650.0</v>
       </c>
       <c r="J33" s="34"/>
-      <c r="K33" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="L33" s="24" t="s">
-        <v>113</v>
+      <c r="K33" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L33" s="23" t="s">
+        <v>112</v>
       </c>
       <c r="M33" s="35" t="s">
         <v>43</v>
@@ -14086,31 +14092,31 @@
     </row>
     <row r="34">
       <c r="A34" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="B34" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="B34" s="31" t="s">
-        <v>158</v>
-      </c>
       <c r="C34" s="15" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="D34" s="31" t="s">
         <v>94</v>
       </c>
       <c r="E34" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="F34" s="31" t="s">
         <v>159</v>
-      </c>
-      <c r="F34" s="31" t="s">
-        <v>160</v>
       </c>
       <c r="I34" s="33">
         <v>44650.0</v>
       </c>
       <c r="J34" s="34"/>
-      <c r="K34" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="L34" s="24" t="s">
+      <c r="K34" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" s="23" t="s">
         <v>42</v>
       </c>
       <c r="M34" s="35" t="s">
@@ -14129,31 +14135,31 @@
     </row>
     <row r="35">
       <c r="A35" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="B35" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="B35" s="31" t="s">
-        <v>162</v>
-      </c>
       <c r="C35" s="15" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="D35" s="31" t="s">
         <v>98</v>
       </c>
       <c r="E35" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="F35" s="31" t="s">
         <v>163</v>
-      </c>
-      <c r="F35" s="31" t="s">
-        <v>164</v>
       </c>
       <c r="I35" s="33">
         <v>44650.0</v>
       </c>
       <c r="J35" s="34"/>
-      <c r="K35" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="L35" s="24" t="s">
+      <c r="K35" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" s="23" t="s">
         <v>42</v>
       </c>
       <c r="M35" s="35" t="s">
@@ -14172,31 +14178,31 @@
     </row>
     <row r="36">
       <c r="A36" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="B36" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="B36" s="31" t="s">
-        <v>166</v>
-      </c>
       <c r="C36" s="15" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="D36" s="31" t="s">
         <v>102</v>
       </c>
       <c r="E36" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="F36" s="31" t="s">
         <v>167</v>
-      </c>
-      <c r="F36" s="31" t="s">
-        <v>168</v>
       </c>
       <c r="I36" s="33">
         <v>44650.0</v>
       </c>
       <c r="J36" s="34"/>
-      <c r="K36" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="L36" s="24" t="s">
+      <c r="K36" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" s="23" t="s">
         <v>42</v>
       </c>
       <c r="M36" s="35" t="s">
@@ -14215,31 +14221,31 @@
     </row>
     <row r="37">
       <c r="A37" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="B37" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="B37" s="31" t="s">
-        <v>170</v>
-      </c>
       <c r="C37" s="15" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="D37" s="31" t="s">
         <v>74</v>
       </c>
       <c r="E37" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="F37" s="31" t="s">
         <v>171</v>
-      </c>
-      <c r="F37" s="31" t="s">
-        <v>172</v>
       </c>
       <c r="I37" s="33">
         <v>44650.0</v>
       </c>
       <c r="J37" s="34"/>
-      <c r="K37" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="L37" s="24" t="s">
+      <c r="K37" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" s="23" t="s">
         <v>42</v>
       </c>
       <c r="M37" s="35" t="s">
@@ -14258,31 +14264,31 @@
     </row>
     <row r="38">
       <c r="A38" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="B38" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="B38" s="31" t="s">
-        <v>174</v>
-      </c>
       <c r="C38" s="15" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="D38" s="31" t="s">
         <v>106</v>
       </c>
       <c r="E38" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="F38" s="31" t="s">
         <v>175</v>
-      </c>
-      <c r="F38" s="31" t="s">
-        <v>176</v>
       </c>
       <c r="I38" s="33">
         <v>44650.0</v>
       </c>
       <c r="J38" s="34"/>
-      <c r="K38" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="L38" s="24" t="s">
+      <c r="K38" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" s="23" t="s">
         <v>42</v>
       </c>
       <c r="M38" s="35" t="s">
@@ -14301,143 +14307,143 @@
     </row>
     <row r="40">
       <c r="A40" s="36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>178</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>180</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>184</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>186</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>188</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="B47" s="10" t="s">
         <v>190</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>192</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="B49" s="10" t="s">
         <v>194</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="B50" s="10" t="s">
         <v>196</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="B51" s="10" t="s">
         <v>198</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="B52" s="10" t="s">
         <v>200</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="B53" s="10" t="s">
         <v>202</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="B54" s="10" t="s">
         <v>204</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="B55" s="10" t="s">
         <v>206</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="B56" s="10" t="s">
         <v>208</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="B57" s="10" t="s">
         <v>210</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="58">
@@ -14448,130 +14454,130 @@
     </row>
     <row r="59">
       <c r="A59" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B59" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B60" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B61" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B62" s="31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B63" s="31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B65" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B66" s="31" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B67" s="31" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B68" s="31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B69" s="31" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B70" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B71" s="31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B72" s="31" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B73" s="31" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B74" s="31" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -14812,24 +14818,24 @@
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="C6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="E6" s="21" t="s">
         <v>230</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>231</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="23"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="20">
         <v>45506.0</v>
       </c>
@@ -14838,27 +14844,27 @@
       </c>
     </row>
     <row r="7">
-      <c r="C7" s="24"/>
-      <c r="H7" s="23"/>
-      <c r="K7" s="25"/>
+      <c r="C7" s="23"/>
+      <c r="H7" s="22"/>
+      <c r="K7" s="24"/>
     </row>
     <row r="8">
-      <c r="C8" s="24"/>
-      <c r="H8" s="23"/>
-      <c r="K8" s="25"/>
+      <c r="C8" s="23"/>
+      <c r="H8" s="22"/>
+      <c r="K8" s="24"/>
     </row>
     <row r="9">
-      <c r="C9" s="24"/>
-      <c r="H9" s="23"/>
-      <c r="K9" s="25"/>
+      <c r="C9" s="23"/>
+      <c r="H9" s="22"/>
+      <c r="K9" s="24"/>
     </row>
     <row r="10">
-      <c r="C10" s="24"/>
-      <c r="H10" s="23"/>
-      <c r="K10" s="25"/>
+      <c r="C10" s="23"/>
+      <c r="H10" s="22"/>
+      <c r="K10" s="24"/>
     </row>
     <row r="11">
-      <c r="H11" s="23"/>
+      <c r="H11" s="22"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C6">
@@ -15014,24 +15020,24 @@
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="C6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="E6" s="21" t="s">
         <v>234</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>235</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="23"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="20">
         <v>45506.0</v>
       </c>
@@ -15040,27 +15046,27 @@
       </c>
     </row>
     <row r="7">
-      <c r="C7" s="24"/>
-      <c r="H7" s="23"/>
-      <c r="K7" s="25"/>
+      <c r="C7" s="23"/>
+      <c r="H7" s="22"/>
+      <c r="K7" s="24"/>
     </row>
     <row r="8">
-      <c r="C8" s="24"/>
-      <c r="H8" s="23"/>
-      <c r="K8" s="25"/>
+      <c r="C8" s="23"/>
+      <c r="H8" s="22"/>
+      <c r="K8" s="24"/>
     </row>
     <row r="9">
-      <c r="C9" s="24"/>
-      <c r="H9" s="23"/>
-      <c r="K9" s="25"/>
+      <c r="C9" s="23"/>
+      <c r="H9" s="22"/>
+      <c r="K9" s="24"/>
     </row>
     <row r="10">
-      <c r="C10" s="24"/>
-      <c r="H10" s="23"/>
-      <c r="K10" s="25"/>
+      <c r="C10" s="23"/>
+      <c r="H10" s="22"/>
+      <c r="K10" s="24"/>
     </row>
     <row r="11">
-      <c r="H11" s="23"/>
+      <c r="H11" s="22"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C6">
@@ -15216,24 +15222,24 @@
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="C6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="E6" s="21" t="s">
         <v>238</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>239</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="23"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="20">
         <v>45506.0</v>
       </c>
@@ -15243,77 +15249,92 @@
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="C7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="15" t="s">
+      <c r="E7" s="21" t="s">
         <v>242</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>243</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="23"/>
-      <c r="K7" s="25"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="20">
+        <v>45506.0</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="C8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="15" t="s">
+      <c r="E8" s="21" t="s">
         <v>246</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>247</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="23"/>
-      <c r="K8" s="25"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="20">
+        <v>45506.0</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="C9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="15" t="s">
+      <c r="E9" s="21" t="s">
         <v>250</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>251</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="23"/>
-      <c r="K9" s="25"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="20">
+        <v>45506.0</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10">
-      <c r="C10" s="24"/>
-      <c r="H10" s="23"/>
-      <c r="K10" s="25"/>
+      <c r="C10" s="23"/>
+      <c r="H10" s="22"/>
+      <c r="K10" s="24"/>
     </row>
     <row r="11">
-      <c r="H11" s="23"/>
+      <c r="H11" s="22"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C6:C9">

--- a/code/vocab_csv/laws-authorities.xlsx
+++ b/code/vocab_csv/laws-authorities.xlsx
@@ -1949,7 +1949,7 @@
     <t>loc:KR</t>
   </si>
   <si>
-    <t>https://www.law.go.kr/영문법령/개인정보 보호법/(19234,20230314)</t>
+    <t>https://www.law.go.kr/영문법령/개인정보 보호법/</t>
   </si>
   <si>
     <t>Arthit Suriyawongkul, Jompon Pitaksantayothin</t>
@@ -1961,7 +1961,7 @@
     <t>Credit Information Use and Protection Act (CIA)</t>
   </si>
   <si>
-    <t>https://www.law.go.kr/영문법령/신용정보의 이용 및 보호에 관한 법률/(19234,20230314)</t>
+    <t>https://www.law.go.kr/영문법령/신용정보의 이용 및 보호에 관한 법률/</t>
   </si>
   <si>
     <t>law-LIA</t>
@@ -1970,7 +1970,7 @@
     <t>Act on the Protection and Use of Location Information (LIA)</t>
   </si>
   <si>
-    <t>https://www.law.go.kr/영문법령/위치정보의 보호 및 이용 등에 관한 법률/(18517,20211019)</t>
+    <t>https://www.law.go.kr/영문법령/위치정보의 보호 및 이용 등에 관한 법률/</t>
   </si>
   <si>
     <t>DPA-KR</t>

--- a/code/vocab_csv/laws-authorities.xlsx
+++ b/code/vocab_csv/laws-authorities.xlsx
@@ -1949,7 +1949,7 @@
     <t>loc:KR</t>
   </si>
   <si>
-    <t>https://www.law.go.kr/영문법령/개인정보 보호법/</t>
+    <t>https://www.law.go.kr/%EC%98%81%EB%AC%B8%EB%B2%95%EB%A0%B9/%EA%B0%9C%EC%9D%B8%EC%A0%95%EB%B3%B4%20%EB%B3%B4%ED%98%B8%EB%B2%95/%2819234%2C20230314%29</t>
   </si>
   <si>
     <t>Arthit Suriyawongkul, Jompon Pitaksantayothin</t>
@@ -1961,7 +1961,7 @@
     <t>Credit Information Use and Protection Act (CIA)</t>
   </si>
   <si>
-    <t>https://www.law.go.kr/영문법령/신용정보의 이용 및 보호에 관한 법률/</t>
+    <t>https://www.law.go.kr/%EC%98%81%EB%AC%B8%EB%B2%95%EB%A0%B9/%EC%8B%A0%EC%9A%A9%EC%A0%95%EB%B3%B4%EC%9D%98%20%EC%9D%B4%EC%9A%A9%20%EB%B0%8F%20%EB%B3%B4%ED%98%B8%EC%97%90%20%EA%B4%80%ED%95%9C%20%EB%B2%95%EB%A5%A0/%2819234%2C20230314%29</t>
   </si>
   <si>
     <t>law-LIA</t>
@@ -1970,7 +1970,7 @@
     <t>Act on the Protection and Use of Location Information (LIA)</t>
   </si>
   <si>
-    <t>https://www.law.go.kr/영문법령/위치정보의 보호 및 이용 등에 관한 법률/</t>
+    <t>https://www.law.go.kr/%EC%98%81%EB%AC%B8%EB%B2%95%EB%A0%B9/%EC%9C%84%EC%B9%98%EC%A0%95%EB%B3%B4%EC%9D%98%20%EB%B3%B4%ED%98%B8%20%EB%B0%8F%20%EC%9D%B4%EC%9A%A9%20%EB%93%B1%EC%97%90%20%EA%B4%80%ED%95%9C%20%EB%B2%95%EB%A5%A0/%2818517%2C20211019%29</t>
   </si>
   <si>
     <t>DPA-KR</t>
@@ -10968,7 +10968,7 @@
       <c r="D3" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="21" t="s">
         <v>525</v>
       </c>
       <c r="G3" s="22">
@@ -10998,7 +10998,7 @@
       <c r="D4" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="21" t="s">
         <v>529</v>
       </c>
       <c r="G4" s="22">
@@ -11028,7 +11028,7 @@
       <c r="D5" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="25" t="s">
         <v>532</v>
       </c>
       <c r="G5" s="22">
@@ -11147,11 +11147,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId2" ref="E8"/>
-    <hyperlink r:id="rId3" ref="E9"/>
+    <hyperlink r:id="rId2" ref="E3"/>
+    <hyperlink r:id="rId3" ref="E4"/>
+    <hyperlink r:id="rId4" ref="E5"/>
+    <hyperlink r:id="rId5" ref="E8"/>
+    <hyperlink r:id="rId6" ref="E9"/>
   </hyperlinks>
-  <drawing r:id="rId4"/>
-  <legacyDrawing r:id="rId5"/>
+  <drawing r:id="rId7"/>
+  <legacyDrawing r:id="rId8"/>
 </worksheet>
 </file>
 

--- a/code/vocab_csv/laws-authorities.xlsx
+++ b/code/vocab_csv/laws-authorities.xlsx
@@ -361,7 +361,7 @@
     <t>code</t>
   </si>
   <si>
-    <t xml:space="preserve">country </t>
+    <t>country</t>
   </si>
   <si>
     <t>link to tab</t>
@@ -598,7 +598,7 @@
     <t>law-MV-DSG</t>
   </si>
   <si>
-    <t>Act to adapt the State Data Protection Act and other data protection regulations in the area of ​​responsibility of the Ministry of the Interior and Europe Mecklenburg-West Pomerania to Regulation (EU) 2016/679 and to implement Directive (EU) 2016/680</t>
+    <t>Act to adapt the State Data Protection Act and other data protection regulations in the area of responsibility of the Ministry of the Interior and Europe Mecklenburg-West Pomerania to Regulation (EU) 2016/679 and to implement Directive (EU) 2016/680</t>
   </si>
   <si>
     <t>loc:DE-MV</t>
@@ -1658,7 +1658,7 @@
     <t>DPA-PL</t>
   </si>
   <si>
-    <t>President of the Personal Data Protection Office  (UODO)</t>
+    <t>President of the Personal Data Protection Office (UODO)</t>
   </si>
   <si>
     <t>loc:PL</t>
@@ -13184,7 +13184,7 @@
       <c r="A12" s="29" t="s">
         <v>607</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="17" t="s">
         <v>81</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -16385,7 +16385,7 @@
       <c r="A12" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="17" t="s">
         <v>81</v>
       </c>
       <c r="C12" s="1" t="s">
